--- a/BackTest/2019-10-29 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-29 BackTest ORBS.xlsx
@@ -2201,17 +2201,13 @@
         <v>12.125</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K52" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
@@ -2240,22 +2236,14 @@
         <v>12.115</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>12</v>
-      </c>
-      <c r="K53" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2283,22 +2271,14 @@
         <v>12.11</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>12</v>
-      </c>
-      <c r="K54" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2326,22 +2306,14 @@
         <v>12.11</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2380,11 +2352,7 @@
       <c r="K56" t="n">
         <v>12.1</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2425,7 +2393,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -2468,7 +2436,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2498,14 +2466,12 @@
         <v>12.11</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>12.1</v>
       </c>
@@ -2541,14 +2507,12 @@
         <v>12.11</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>12.1</v>
       </c>
@@ -2625,14 +2589,12 @@
         <v>12.1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>12.1</v>
       </c>
@@ -2668,14 +2630,12 @@
         <v>12.1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>12.1</v>
       </c>
@@ -2711,14 +2671,12 @@
         <v>12.095</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>12.1</v>
       </c>
@@ -2754,14 +2712,12 @@
         <v>12.09000000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>12</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>12.1</v>
       </c>
@@ -2797,14 +2753,12 @@
         <v>12.08000000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>12.1</v>
       </c>
@@ -2840,14 +2794,12 @@
         <v>12.07000000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>12</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>12.1</v>
       </c>
@@ -2883,14 +2835,12 @@
         <v>12.07000000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>12.1</v>
       </c>
@@ -2926,14 +2876,12 @@
         <v>12.06500000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>12</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>12.1</v>
       </c>
@@ -2969,14 +2917,12 @@
         <v>12.06500000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>12.1</v>
       </c>
@@ -3012,14 +2958,12 @@
         <v>12.06500000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>12.1</v>
       </c>
@@ -3055,14 +2999,12 @@
         <v>12.06500000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>12.1</v>
       </c>
@@ -3098,14 +3040,12 @@
         <v>12.07000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>12.1</v>
       </c>
@@ -3141,14 +3081,12 @@
         <v>12.07500000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>12.1</v>
       </c>
@@ -3184,14 +3122,12 @@
         <v>12.07500000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>12.1</v>
       </c>
@@ -3227,14 +3163,12 @@
         <v>12.07500000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>12.1</v>
       </c>
@@ -3270,14 +3204,12 @@
         <v>12.08000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>12.1</v>
       </c>
@@ -3313,14 +3245,12 @@
         <v>12.085</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>12.1</v>
       </c>
@@ -3356,14 +3286,12 @@
         <v>12.08000000000001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>12.1</v>
       </c>
@@ -3440,14 +3368,12 @@
         <v>12.095</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>12.1</v>
       </c>
@@ -3565,14 +3491,12 @@
         <v>12.1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>12.1</v>
       </c>
@@ -3649,14 +3573,12 @@
         <v>12.11</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>12</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>12.1</v>
       </c>
@@ -3692,14 +3614,12 @@
         <v>12.11</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>12</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>12.1</v>
       </c>
@@ -3735,14 +3655,12 @@
         <v>12.105</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>12</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>12.1</v>
       </c>
@@ -3778,14 +3696,12 @@
         <v>12.11</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>12.1</v>
       </c>
@@ -3821,14 +3737,12 @@
         <v>12.11</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>12.1</v>
       </c>
@@ -3864,14 +3778,12 @@
         <v>12.11</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>12.1</v>
       </c>
@@ -3907,14 +3819,12 @@
         <v>12.11</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>12.1</v>
       </c>
@@ -3950,14 +3860,12 @@
         <v>12.11</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>12.1</v>
       </c>
@@ -3993,14 +3901,12 @@
         <v>12.11</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>12.1</v>
       </c>
@@ -4036,14 +3942,12 @@
         <v>12.105</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>12</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>12.1</v>
       </c>
@@ -4079,14 +3983,12 @@
         <v>12.1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>12</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>12.1</v>
       </c>
@@ -4122,14 +4024,12 @@
         <v>12.095</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>12.1</v>
       </c>
@@ -4165,14 +4065,12 @@
         <v>12.09000000000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>12.1</v>
       </c>
@@ -4208,14 +4106,12 @@
         <v>12.09000000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>12.1</v>
       </c>
@@ -4251,14 +4147,12 @@
         <v>12.09000000000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>12.1</v>
       </c>
@@ -4294,14 +4188,12 @@
         <v>12.085</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>12.1</v>
       </c>
@@ -4337,14 +4229,12 @@
         <v>12.085</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>12.1</v>
       </c>
@@ -4380,14 +4270,12 @@
         <v>12.08000000000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>12.1</v>
       </c>
@@ -4423,14 +4311,12 @@
         <v>12.08000000000001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>12.1</v>
       </c>
@@ -4466,14 +4352,12 @@
         <v>12.085</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>12.1</v>
       </c>
@@ -4509,14 +4393,12 @@
         <v>12.095</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
         <v>12.1</v>
       </c>
@@ -4552,14 +4434,12 @@
         <v>12.105</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>12.1</v>
       </c>
@@ -5948,14 +5828,12 @@
         <v>12.15500000000001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
         <v>12.1</v>
       </c>
@@ -5991,14 +5869,12 @@
         <v>12.14500000000001</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
         <v>12.1</v>
       </c>
@@ -6034,14 +5910,12 @@
         <v>12.14000000000001</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
         <v>12.1</v>
       </c>
@@ -6077,14 +5951,12 @@
         <v>12.13500000000001</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
         <v>12.1</v>
       </c>
@@ -6120,14 +5992,12 @@
         <v>12.13500000000001</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
         <v>12.1</v>
       </c>
@@ -6163,14 +6033,12 @@
         <v>12.13500000000001</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
         <v>12.1</v>
       </c>
@@ -6329,14 +6197,12 @@
         <v>12.14000000000001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
         <v>12.1</v>
       </c>
@@ -8425,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
@@ -8433,11 +8299,11 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>1.019793388429752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -8469,8 +8335,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8504,8 +8376,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8417,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8574,8 +8458,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8609,8 +8499,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8644,8 +8540,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8679,8 +8581,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8714,8 +8622,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8749,8 +8663,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8784,8 +8704,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8819,8 +8745,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8854,8 +8786,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8889,8 +8827,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8924,8 +8868,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8959,8 +8909,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8991,13 +8947,19 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M217" t="n">
-        <v>1</v>
+        <v>1.036322314049587</v>
       </c>
     </row>
     <row r="218">
@@ -9481,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-29 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:N253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>27335.42634918033</v>
       </c>
       <c r="G2" t="n">
+        <v>12.21333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>12.23833333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>12.21333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.23999999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>19.0119</v>
       </c>
       <c r="G4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H4" t="n">
         <v>12.23999999999999</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>11</v>
       </c>
       <c r="G5" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>12.24166666666665</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2968.965</v>
       </c>
       <c r="G6" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.24166666666665</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>13</v>
       </c>
       <c r="G7" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.24499999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>394.3902</v>
       </c>
       <c r="G8" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.24499999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>4024.8588</v>
       </c>
       <c r="G9" t="n">
+        <v>12.23333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.24499999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>12.24499999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>25</v>
       </c>
       <c r="G11" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.24333333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>112170.5364</v>
       </c>
       <c r="G12" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.24333333333332</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
+        <v>12.21333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.24166666666665</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>2823</v>
       </c>
       <c r="G14" t="n">
+        <v>12.20666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>12.23999999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2653</v>
       </c>
       <c r="G15" t="n">
+        <v>12.21333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>12.23999999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>79708.5365</v>
       </c>
       <c r="G16" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.24166666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1302.136</v>
       </c>
       <c r="G17" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.23999999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1783.6956</v>
       </c>
       <c r="G18" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.23999999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>306252.0325</v>
       </c>
       <c r="G19" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>12.24166666666665</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>40482.3284</v>
       </c>
       <c r="G20" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>12.24333333333332</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>61136.2883</v>
       </c>
       <c r="G21" t="n">
+        <v>12.23333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>12.24333333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>30136.7491</v>
       </c>
       <c r="G22" t="n">
+        <v>12.23333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>12.24333333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>11</v>
       </c>
       <c r="G23" t="n">
+        <v>12.23333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>12.24166666666665</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>13</v>
       </c>
       <c r="G24" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>12.23833333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>37824.8286</v>
       </c>
       <c r="G25" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>12.23666666666665</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>44</v>
       </c>
       <c r="G26" t="n">
+        <v>12.22000000000001</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.23333333333332</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>11</v>
       </c>
       <c r="G27" t="n">
+        <v>12.22666666666668</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.23333333333332</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>555332.5774508197</v>
       </c>
       <c r="G28" t="n">
+        <v>12.22666666666668</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.22999999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>20000</v>
       </c>
       <c r="G29" t="n">
+        <v>12.22666666666668</v>
+      </c>
+      <c r="H29" t="n">
         <v>12.22666666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
+        <v>12.20666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>12.22166666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>12</v>
       </c>
       <c r="G31" t="n">
+        <v>12.19333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.21833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>6562.2418</v>
       </c>
       <c r="G32" t="n">
+        <v>12.18000000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.21333333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>13281.87594918033</v>
       </c>
       <c r="G33" t="n">
+        <v>12.17333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.21166666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>19</v>
       </c>
       <c r="G34" t="n">
+        <v>12.16666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.21166666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>12</v>
       </c>
       <c r="G35" t="n">
+        <v>12.15333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.20999999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.20833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>35157.5409</v>
       </c>
       <c r="G37" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.20833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>13</v>
       </c>
       <c r="G38" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.20499999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>62138.6131</v>
       </c>
       <c r="G39" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.20333333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>14</v>
       </c>
       <c r="G40" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H40" t="n">
         <v>12.20166666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>38116.97375081967</v>
       </c>
       <c r="G41" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H41" t="n">
         <v>12.19833333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>7307.2539</v>
       </c>
       <c r="G42" t="n">
+        <v>12.10666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>12.195</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>4544.836</v>
       </c>
       <c r="G43" t="n">
+        <v>12.11333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>12.19333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>13</v>
       </c>
       <c r="G44" t="n">
+        <v>12.11333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.19166666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>648.3606</v>
       </c>
       <c r="G45" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.19</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>50</v>
       </c>
       <c r="G46" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H46" t="n">
         <v>12.19</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>121320.9821</v>
       </c>
       <c r="G47" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>12.18666666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>13</v>
       </c>
       <c r="G48" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>12.185</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>13</v>
       </c>
       <c r="G49" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>12.185</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>11</v>
       </c>
       <c r="G50" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.18333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>235458.3812</v>
       </c>
       <c r="G51" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.18</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>11</v>
       </c>
       <c r="G52" t="n">
+        <v>12.11333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>12.17666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>4564.5965</v>
       </c>
       <c r="G53" t="n">
+        <v>12.11333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>12.175</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>2948.0867</v>
       </c>
       <c r="G54" t="n">
+        <v>12.10666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.17333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>11</v>
       </c>
       <c r="G55" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.16833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>45.2066</v>
       </c>
       <c r="G56" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.16666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>11274.1322</v>
       </c>
       <c r="G57" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H57" t="n">
         <v>12.16333333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>9635.6214</v>
       </c>
       <c r="G58" t="n">
+        <v>12.09333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>12.16166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>50508.5042</v>
       </c>
       <c r="G59" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.16166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>69559.8385</v>
       </c>
       <c r="G60" t="n">
+        <v>12.10666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>12.16166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>274220.8264</v>
       </c>
       <c r="G61" t="n">
+        <v>12.10666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.16166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>11</v>
       </c>
       <c r="G62" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.15833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>9107.0506</v>
       </c>
       <c r="G63" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.15666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>51878.5123</v>
       </c>
       <c r="G64" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.155</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>4451.971</v>
       </c>
       <c r="G65" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.15166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>615055.5162</v>
       </c>
       <c r="G66" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.14833333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>272.7481</v>
       </c>
       <c r="G67" t="n">
+        <v>12.09333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.14333333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>15973.4131</v>
       </c>
       <c r="G68" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.14</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>13</v>
       </c>
       <c r="G69" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.13666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>35069.647</v>
       </c>
       <c r="G70" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.13333333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>52168.6081</v>
       </c>
       <c r="G71" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.13166666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>163124.0100421488</v>
       </c>
       <c r="G72" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.13</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>43858.7438</v>
       </c>
       <c r="G73" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.13</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>298064.3743</v>
       </c>
       <c r="G74" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.13</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>4132.231404958678</v>
       </c>
       <c r="G75" t="n">
+        <v>12.07333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.12666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>49718.77475289256</v>
       </c>
       <c r="G76" t="n">
+        <v>12.07333333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.12333333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>100000</v>
       </c>
       <c r="G77" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.12166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>37941.1716</v>
       </c>
       <c r="G78" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.12166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>65245.9016</v>
       </c>
       <c r="G79" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.12</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>128379.4829</v>
       </c>
       <c r="G80" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.11666666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>42.1639</v>
       </c>
       <c r="G81" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.11500000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3251,15 +3496,18 @@
         <v>12.11333333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>12.11333333333334</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>483758.2064</v>
       </c>
       <c r="G83" t="n">
+        <v>12.11333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.11000000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>69.1147</v>
       </c>
       <c r="G84" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.11000000000001</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>10</v>
       </c>
       <c r="G85" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.10833333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>3830</v>
       </c>
       <c r="G86" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>12.10833333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,27 @@
         <v>808971.4957</v>
       </c>
       <c r="G87" t="n">
+        <v>12.11333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>12.10166666666668</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3727,27 @@
         <v>108.6616</v>
       </c>
       <c r="G88" t="n">
+        <v>12.10666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>12.10000000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3771,27 @@
         <v>16842.966</v>
       </c>
       <c r="G89" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H89" t="n">
         <v>12.09833333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>12</v>
+      </c>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3815,27 @@
         <v>330.5785</v>
       </c>
       <c r="G90" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H90" t="n">
         <v>12.10000000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>12</v>
+      </c>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3859,27 @@
         <v>23506.77685950413</v>
       </c>
       <c r="G91" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H91" t="n">
         <v>12.10000000000001</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3903,27 @@
         <v>449</v>
       </c>
       <c r="G92" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H92" t="n">
         <v>12.10166666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3947,27 @@
         <v>108799.9109</v>
       </c>
       <c r="G93" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H93" t="n">
         <v>12.10333333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3991,27 @@
         <v>2640</v>
       </c>
       <c r="G94" t="n">
+        <v>12.09333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>12.10166666666668</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4035,27 @@
         <v>28954.0909</v>
       </c>
       <c r="G95" t="n">
+        <v>12.09333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>12.10166666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4079,27 @@
         <v>132967.2887</v>
       </c>
       <c r="G96" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="H96" t="n">
         <v>12.10000000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4123,27 @@
         <v>26260.6961</v>
       </c>
       <c r="G97" t="n">
+        <v>12.06666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>12.09666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>12</v>
+      </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4167,27 @@
         <v>28109.17355371901</v>
       </c>
       <c r="G98" t="n">
+        <v>12.07333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>12.09666666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12</v>
+      </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4211,27 @@
         <v>70914.15974628099</v>
       </c>
       <c r="G99" t="n">
+        <v>12.06666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>12.09500000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4255,27 @@
         <v>120667.1273</v>
       </c>
       <c r="G100" t="n">
+        <v>12.06666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>12.09500000000001</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4299,27 @@
         <v>857.2065</v>
       </c>
       <c r="G101" t="n">
+        <v>12.07333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>12.09666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4343,27 @@
         <v>51180.4237</v>
       </c>
       <c r="G102" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>12.09666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4387,27 @@
         <v>45333.82635371901</v>
       </c>
       <c r="G103" t="n">
+        <v>12.09333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>12.09500000000001</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4431,27 @@
         <v>10000</v>
       </c>
       <c r="G104" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H104" t="n">
         <v>12.09500000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4475,27 @@
         <v>48228.5121</v>
       </c>
       <c r="G105" t="n">
+        <v>12.10666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>12.09666666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4519,27 @@
         <v>4000</v>
       </c>
       <c r="G106" t="n">
+        <v>12.11333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>12.09833333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4563,27 @@
         <v>6000</v>
       </c>
       <c r="G107" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H107" t="n">
         <v>12.10000000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4607,27 @@
         <v>6000</v>
       </c>
       <c r="G108" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H108" t="n">
         <v>12.10000000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4651,27 @@
         <v>6000</v>
       </c>
       <c r="G109" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H109" t="n">
         <v>12.10000000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4695,27 @@
         <v>6350</v>
       </c>
       <c r="G110" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>12.10166666666668</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4739,27 @@
         <v>4000</v>
       </c>
       <c r="G111" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H111" t="n">
         <v>12.10500000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4783,27 @@
         <v>4000</v>
       </c>
       <c r="G112" t="n">
+        <v>12.15333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>12.10666666666668</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4827,27 @@
         <v>4768.2733</v>
       </c>
       <c r="G113" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="H113" t="n">
         <v>12.10833333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4871,27 @@
         <v>1983.7398</v>
       </c>
       <c r="G114" t="n">
+        <v>12.16666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>12.11000000000001</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4915,27 @@
         <v>3967.4797</v>
       </c>
       <c r="G115" t="n">
+        <v>12.17333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>12.11333333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4959,27 @@
         <v>698.4497</v>
       </c>
       <c r="G116" t="n">
+        <v>12.17333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>12.11500000000001</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5003,27 @@
         <v>123131.4445867769</v>
       </c>
       <c r="G117" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="H117" t="n">
         <v>12.11666666666668</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5047,27 @@
         <v>26739.756</v>
       </c>
       <c r="G118" t="n">
+        <v>12.19333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>12.12000000000001</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5091,27 @@
         <v>4000</v>
       </c>
       <c r="G119" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H119" t="n">
         <v>12.12000000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>12.3</v>
+      </c>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5135,27 @@
         <v>71652.02039999999</v>
       </c>
       <c r="G120" t="n">
+        <v>12.20666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>12.12166666666668</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5179,27 @@
         <v>9451.071</v>
       </c>
       <c r="G121" t="n">
+        <v>12.21333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>12.12500000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>12.3</v>
+      </c>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5223,25 @@
         <v>17083</v>
       </c>
       <c r="G122" t="n">
+        <v>12.21333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>12.12833333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5265,27 @@
         <v>217316.456</v>
       </c>
       <c r="G123" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H123" t="n">
         <v>12.13000000000001</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5309,25 @@
         <v>8029</v>
       </c>
       <c r="G124" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>12.13166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5351,25 @@
         <v>5019</v>
       </c>
       <c r="G125" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>12.13333333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5393,25 @@
         <v>4926</v>
       </c>
       <c r="G126" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>12.13666666666668</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5435,25 @@
         <v>3465</v>
       </c>
       <c r="G127" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>12.14000000000001</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5477,25 @@
         <v>13294.9999</v>
       </c>
       <c r="G128" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>12.14333333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5519,25 @@
         <v>95785</v>
       </c>
       <c r="G129" t="n">
+        <v>12.21333333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>12.14166666666668</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5561,27 @@
         <v>8712</v>
       </c>
       <c r="G130" t="n">
+        <v>12.20666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>12.14333333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>12</v>
+      </c>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5605,27 @@
         <v>4674</v>
       </c>
       <c r="G131" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H131" t="n">
         <v>12.14333333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5649,25 @@
         <v>37362.6229</v>
       </c>
       <c r="G132" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H132" t="n">
         <v>12.14500000000001</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5691,25 @@
         <v>56250.7104</v>
       </c>
       <c r="G133" t="n">
+        <v>12.19333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>12.14666666666668</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5733,25 @@
         <v>47093.6884</v>
       </c>
       <c r="G134" t="n">
+        <v>12.19333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>12.14833333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5775,25 @@
         <v>101477.8399</v>
       </c>
       <c r="G135" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="H135" t="n">
         <v>12.14833333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5817,27 @@
         <v>21684.5773</v>
       </c>
       <c r="G136" t="n">
+        <v>12.17333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>12.15000000000001</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5861,25 @@
         <v>58279</v>
       </c>
       <c r="G137" t="n">
+        <v>12.16666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>12.15000000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5903,25 @@
         <v>26427.5994</v>
       </c>
       <c r="G138" t="n">
+        <v>12.15333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>12.14833333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5945,25 @@
         <v>55356.5188</v>
       </c>
       <c r="G139" t="n">
+        <v>12.14666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>12.14666666666668</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5987,27 @@
         <v>420</v>
       </c>
       <c r="G140" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H140" t="n">
         <v>12.14666666666668</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6031,27 @@
         <v>1000</v>
       </c>
       <c r="G141" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>12.14500000000001</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6075,27 @@
         <v>20917.459</v>
       </c>
       <c r="G142" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>12.14333333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,22 +6119,27 @@
         <v>139037.438</v>
       </c>
       <c r="G143" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H143" t="n">
         <v>12.14500000000001</v>
       </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
         <v>12.1</v>
       </c>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5422,26 +6163,27 @@
         <v>450000</v>
       </c>
       <c r="G144" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>12.14333333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
         <v>12.1</v>
       </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5465,26 +6207,25 @@
         <v>19137.2205</v>
       </c>
       <c r="G145" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>12.14333333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K145" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,22 +6249,25 @@
         <v>167379.5901</v>
       </c>
       <c r="G146" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>12.14500000000001</v>
       </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K146" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5547,24 +6291,25 @@
         <v>96740.3168</v>
       </c>
       <c r="G147" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>12.15000000000001</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5588,24 +6333,25 @@
         <v>263.307</v>
       </c>
       <c r="G148" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>12.15166666666668</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,18 +6375,25 @@
         <v>21602.2626</v>
       </c>
       <c r="G149" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H149" t="n">
         <v>12.15333333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,18 +6417,25 @@
         <v>13</v>
       </c>
       <c r="G150" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>12.15500000000001</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,18 +6459,25 @@
         <v>5942.1311</v>
       </c>
       <c r="G151" t="n">
+        <v>12.12666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>12.15666666666668</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,18 +6501,25 @@
         <v>41341.127</v>
       </c>
       <c r="G152" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>12.15833333333335</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,18 +6543,25 @@
         <v>62011.7213</v>
       </c>
       <c r="G153" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H153" t="n">
         <v>12.15833333333335</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,18 +6585,25 @@
         <v>62011.7213</v>
       </c>
       <c r="G154" t="n">
+        <v>12.14666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>12.16000000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5839,18 +6627,25 @@
         <v>167402.5099</v>
       </c>
       <c r="G155" t="n">
+        <v>12.15333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>12.16166666666668</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,18 +6669,25 @@
         <v>731.7433</v>
       </c>
       <c r="G156" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="H156" t="n">
         <v>12.16500000000002</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5909,18 +6711,25 @@
         <v>151494.8287</v>
       </c>
       <c r="G157" t="n">
+        <v>12.17333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>12.17000000000001</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,18 +6753,25 @@
         <v>64230.0626</v>
       </c>
       <c r="G158" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="H158" t="n">
         <v>12.17166666666668</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5979,18 +6795,25 @@
         <v>10</v>
       </c>
       <c r="G159" t="n">
+        <v>12.19333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>12.17500000000001</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,18 +6837,25 @@
         <v>26810</v>
       </c>
       <c r="G160" t="n">
+        <v>12.20666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>12.17833333333335</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,18 +6879,25 @@
         <v>165415.2032</v>
       </c>
       <c r="G161" t="n">
+        <v>12.21333333333334</v>
+      </c>
+      <c r="H161" t="n">
         <v>12.18000000000001</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6084,18 +6921,25 @@
         <v>8821.055</v>
       </c>
       <c r="G162" t="n">
+        <v>12.21333333333334</v>
+      </c>
+      <c r="H162" t="n">
         <v>12.18166666666668</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6119,18 +6963,25 @@
         <v>100020</v>
       </c>
       <c r="G163" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>12.18500000000001</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,18 +7005,25 @@
         <v>10000</v>
       </c>
       <c r="G164" t="n">
+        <v>12.23333333333334</v>
+      </c>
+      <c r="H164" t="n">
         <v>12.18666666666668</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,18 +7047,25 @@
         <v>33</v>
       </c>
       <c r="G165" t="n">
+        <v>12.24000000000001</v>
+      </c>
+      <c r="H165" t="n">
         <v>12.18833333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,18 +7089,25 @@
         <v>78830.80809999999</v>
       </c>
       <c r="G166" t="n">
+        <v>12.24000000000001</v>
+      </c>
+      <c r="H166" t="n">
         <v>12.18833333333334</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,18 +7131,25 @@
         <v>25460.3616</v>
       </c>
       <c r="G167" t="n">
+        <v>12.23333333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>12.18666666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6294,18 +7173,25 @@
         <v>192120.3065658537</v>
       </c>
       <c r="G168" t="n">
+        <v>12.24000000000001</v>
+      </c>
+      <c r="H168" t="n">
         <v>12.18833333333334</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6329,18 +7215,25 @@
         <v>56</v>
       </c>
       <c r="G169" t="n">
+        <v>12.24666666666668</v>
+      </c>
+      <c r="H169" t="n">
         <v>12.19166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,18 +7257,25 @@
         <v>242775.9882</v>
       </c>
       <c r="G170" t="n">
+        <v>12.24666666666668</v>
+      </c>
+      <c r="H170" t="n">
         <v>12.19166666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,18 +7299,25 @@
         <v>477359.8012</v>
       </c>
       <c r="G171" t="n">
+        <v>12.25333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>12.19333333333334</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,18 +7341,25 @@
         <v>56638.5261</v>
       </c>
       <c r="G172" t="n">
+        <v>12.24666666666668</v>
+      </c>
+      <c r="H172" t="n">
         <v>12.19333333333334</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6469,18 +7383,25 @@
         <v>2693.8334</v>
       </c>
       <c r="G173" t="n">
+        <v>12.24666666666668</v>
+      </c>
+      <c r="H173" t="n">
         <v>12.19333333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,18 +7425,25 @@
         <v>107613.1997</v>
       </c>
       <c r="G174" t="n">
+        <v>12.24000000000001</v>
+      </c>
+      <c r="H174" t="n">
         <v>12.19333333333334</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6539,18 +7467,25 @@
         <v>8712.3781</v>
       </c>
       <c r="G175" t="n">
+        <v>12.23333333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>12.19333333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,18 +7509,25 @@
         <v>88499.2179</v>
       </c>
       <c r="G176" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>12.19333333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6609,18 +7551,25 @@
         <v>41229.9831</v>
       </c>
       <c r="G177" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>12.19333333333334</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,18 +7593,25 @@
         <v>81300.81300813008</v>
       </c>
       <c r="G178" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>12.19333333333334</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,18 +7635,25 @@
         <v>10227</v>
       </c>
       <c r="G179" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>12.19333333333334</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6714,18 +7677,25 @@
         <v>60538.0422</v>
       </c>
       <c r="G180" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H180" t="n">
         <v>12.19166666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6749,18 +7719,25 @@
         <v>19</v>
       </c>
       <c r="G181" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>12.19166666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6784,18 +7761,25 @@
         <v>31058.637</v>
       </c>
       <c r="G182" t="n">
+        <v>12.24000000000001</v>
+      </c>
+      <c r="H182" t="n">
         <v>12.19333333333334</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6819,18 +7803,25 @@
         <v>23451.9231</v>
       </c>
       <c r="G183" t="n">
+        <v>12.23333333333334</v>
+      </c>
+      <c r="H183" t="n">
         <v>12.19166666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6854,18 +7845,25 @@
         <v>62417.6937</v>
       </c>
       <c r="G184" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>12.19166666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6889,18 +7887,25 @@
         <v>126195.0036</v>
       </c>
       <c r="G185" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>12.19166666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6924,18 +7929,25 @@
         <v>94646.2527</v>
       </c>
       <c r="G186" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H186" t="n">
         <v>12.19166666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6959,18 +7971,25 @@
         <v>57172.9396</v>
       </c>
       <c r="G187" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="H187" t="n">
         <v>12.19166666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6994,18 +8013,25 @@
         <v>8069.6347</v>
       </c>
       <c r="G188" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>12.19333333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7029,18 +8055,25 @@
         <v>2870</v>
       </c>
       <c r="G189" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>12.19666666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7064,18 +8097,25 @@
         <v>1068</v>
       </c>
       <c r="G190" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>12.19833333333334</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7099,18 +8139,25 @@
         <v>101838.5621</v>
       </c>
       <c r="G191" t="n">
+        <v>12.23333333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>12.20166666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7134,18 +8181,25 @@
         <v>11</v>
       </c>
       <c r="G192" t="n">
+        <v>12.23333333333334</v>
+      </c>
+      <c r="H192" t="n">
         <v>12.20166666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7169,18 +8223,25 @@
         <v>48425.9398</v>
       </c>
       <c r="G193" t="n">
+        <v>12.22666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>12.20166666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7204,18 +8265,25 @@
         <v>107674.1192</v>
       </c>
       <c r="G194" t="n">
+        <v>12.23333333333334</v>
+      </c>
+      <c r="H194" t="n">
         <v>12.20333333333334</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7239,18 +8307,25 @@
         <v>10</v>
       </c>
       <c r="G195" t="n">
+        <v>12.24666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>12.20833333333334</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7274,18 +8349,25 @@
         <v>309714.3548</v>
       </c>
       <c r="G196" t="n">
+        <v>12.25333333333334</v>
+      </c>
+      <c r="H196" t="n">
         <v>12.21166666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7309,18 +8391,25 @@
         <v>27286.0563</v>
       </c>
       <c r="G197" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="H197" t="n">
         <v>12.21666666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7344,18 +8433,25 @@
         <v>6499362.32649187</v>
       </c>
       <c r="G198" t="n">
+        <v>12.27333333333334</v>
+      </c>
+      <c r="H198" t="n">
         <v>12.22166666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7379,18 +8475,25 @@
         <v>7143665.82350813</v>
       </c>
       <c r="G199" t="n">
+        <v>12.28666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>12.22666666666666</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7414,18 +8517,25 @@
         <v>7230804.9195</v>
       </c>
       <c r="G200" t="n">
+        <v>12.30000000000001</v>
+      </c>
+      <c r="H200" t="n">
         <v>12.23166666666666</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7449,18 +8559,25 @@
         <v>1941904.36669187</v>
       </c>
       <c r="G201" t="n">
+        <v>12.31333333333334</v>
+      </c>
+      <c r="H201" t="n">
         <v>12.23666666666666</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7484,18 +8601,25 @@
         <v>5918.993908130081</v>
       </c>
       <c r="G202" t="n">
+        <v>12.32666666666668</v>
+      </c>
+      <c r="H202" t="n">
         <v>12.24166666666666</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7519,18 +8643,25 @@
         <v>109641.006</v>
       </c>
       <c r="G203" t="n">
+        <v>12.33333333333334</v>
+      </c>
+      <c r="H203" t="n">
         <v>12.24666666666666</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7554,18 +8685,25 @@
         <v>693.471</v>
       </c>
       <c r="G204" t="n">
+        <v>12.34666666666668</v>
+      </c>
+      <c r="H204" t="n">
         <v>12.25166666666666</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7589,18 +8727,25 @@
         <v>194214.8256</v>
       </c>
       <c r="G205" t="n">
+        <v>12.36000000000001</v>
+      </c>
+      <c r="H205" t="n">
         <v>12.25666666666666</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7624,18 +8769,25 @@
         <v>182</v>
       </c>
       <c r="G206" t="n">
+        <v>12.36000000000001</v>
+      </c>
+      <c r="H206" t="n">
         <v>12.25833333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7659,18 +8811,25 @@
         <v>30269.0211</v>
       </c>
       <c r="G207" t="n">
+        <v>12.36666666666668</v>
+      </c>
+      <c r="H207" t="n">
         <v>12.25999999999999</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7694,18 +8853,25 @@
         <v>81.96720000000001</v>
       </c>
       <c r="G208" t="n">
+        <v>12.38000000000001</v>
+      </c>
+      <c r="H208" t="n">
         <v>12.26499999999999</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7729,18 +8895,25 @@
         <v>59774.4478</v>
       </c>
       <c r="G209" t="n">
+        <v>12.39333333333335</v>
+      </c>
+      <c r="H209" t="n">
         <v>12.27166666666666</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7764,18 +8937,25 @@
         <v>10</v>
       </c>
       <c r="G210" t="n">
+        <v>12.40666666666668</v>
+      </c>
+      <c r="H210" t="n">
         <v>12.27833333333332</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7799,18 +8979,25 @@
         <v>135156.6533</v>
       </c>
       <c r="G211" t="n">
+        <v>12.40666666666668</v>
+      </c>
+      <c r="H211" t="n">
         <v>12.28166666666666</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7834,18 +9021,25 @@
         <v>0.0001</v>
       </c>
       <c r="G212" t="n">
+        <v>12.40666666666668</v>
+      </c>
+      <c r="H212" t="n">
         <v>12.28499999999999</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7869,18 +9063,25 @@
         <v>5460.2235</v>
       </c>
       <c r="G213" t="n">
+        <v>12.41333333333335</v>
+      </c>
+      <c r="H213" t="n">
         <v>12.28999999999999</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7904,18 +9105,25 @@
         <v>260.1587</v>
       </c>
       <c r="G214" t="n">
+        <v>12.41333333333335</v>
+      </c>
+      <c r="H214" t="n">
         <v>12.29333333333332</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7939,18 +9147,25 @@
         <v>68.75</v>
       </c>
       <c r="G215" t="n">
+        <v>12.41333333333335</v>
+      </c>
+      <c r="H215" t="n">
         <v>12.29666666666665</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7974,18 +9189,25 @@
         <v>10</v>
       </c>
       <c r="G216" t="n">
+        <v>12.42666666666668</v>
+      </c>
+      <c r="H216" t="n">
         <v>12.30333333333332</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8009,18 +9231,25 @@
         <v>357247.4602206349</v>
       </c>
       <c r="G217" t="n">
+        <v>12.44000000000001</v>
+      </c>
+      <c r="H217" t="n">
         <v>12.30833333333332</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8044,18 +9273,25 @@
         <v>3711.8571</v>
       </c>
       <c r="G218" t="n">
+        <v>12.45333333333334</v>
+      </c>
+      <c r="H218" t="n">
         <v>12.31499999999999</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8079,18 +9315,25 @@
         <v>14610</v>
       </c>
       <c r="G219" t="n">
+        <v>12.46000000000001</v>
+      </c>
+      <c r="H219" t="n">
         <v>12.31833333333332</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8114,18 +9357,25 @@
         <v>31226.9555</v>
       </c>
       <c r="G220" t="n">
+        <v>12.47333333333334</v>
+      </c>
+      <c r="H220" t="n">
         <v>12.32333333333332</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,18 +9399,25 @@
         <v>47189.5012</v>
       </c>
       <c r="G221" t="n">
+        <v>12.49333333333334</v>
+      </c>
+      <c r="H221" t="n">
         <v>12.32833333333332</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8184,18 +9441,25 @@
         <v>132371.5322</v>
       </c>
       <c r="G222" t="n">
+        <v>12.51333333333334</v>
+      </c>
+      <c r="H222" t="n">
         <v>12.33499999999999</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8219,18 +9483,25 @@
         <v>294654.2489</v>
       </c>
       <c r="G223" t="n">
+        <v>12.52000000000001</v>
+      </c>
+      <c r="H223" t="n">
         <v>12.33833333333332</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8254,18 +9525,25 @@
         <v>15270</v>
       </c>
       <c r="G224" t="n">
+        <v>12.52000000000001</v>
+      </c>
+      <c r="H224" t="n">
         <v>12.34333333333332</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8289,18 +9567,25 @@
         <v>108838.0585793651</v>
       </c>
       <c r="G225" t="n">
+        <v>12.52000000000001</v>
+      </c>
+      <c r="H225" t="n">
         <v>12.34833333333332</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8324,18 +9609,25 @@
         <v>42719.6488</v>
       </c>
       <c r="G226" t="n">
+        <v>12.53333333333334</v>
+      </c>
+      <c r="H226" t="n">
         <v>12.35499999999999</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8359,18 +9651,25 @@
         <v>379637.3177</v>
       </c>
       <c r="G227" t="n">
+        <v>12.54666666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>12.36333333333332</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8394,18 +9693,25 @@
         <v>53211.3385</v>
       </c>
       <c r="G228" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="H228" t="n">
         <v>12.36999999999999</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8429,18 +9735,25 @@
         <v>747813.6716999999</v>
       </c>
       <c r="G229" t="n">
+        <v>12.58666666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>12.37833333333332</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8464,18 +9777,25 @@
         <v>15969.0625</v>
       </c>
       <c r="G230" t="n">
+        <v>12.61333333333334</v>
+      </c>
+      <c r="H230" t="n">
         <v>12.38833333333332</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8499,18 +9819,25 @@
         <v>107301.6489</v>
       </c>
       <c r="G231" t="n">
+        <v>12.62666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>12.39666666666665</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8534,18 +9861,25 @@
         <v>310045.5925</v>
       </c>
       <c r="G232" t="n">
+        <v>12.64000000000001</v>
+      </c>
+      <c r="H232" t="n">
         <v>12.40666666666665</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8569,20 +9903,25 @@
         <v>851</v>
       </c>
       <c r="G233" t="n">
+        <v>12.65333333333334</v>
+      </c>
+      <c r="H233" t="n">
         <v>12.41666666666665</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8604,18 +9943,21 @@
         <v>10000.6648</v>
       </c>
       <c r="G234" t="n">
+        <v>12.66666666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>12.42499999999998</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8639,18 +9981,21 @@
         <v>10</v>
       </c>
       <c r="G235" t="n">
+        <v>12.68000000000001</v>
+      </c>
+      <c r="H235" t="n">
         <v>12.43499999999998</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8674,18 +10019,21 @@
         <v>4334.8437</v>
       </c>
       <c r="G236" t="n">
+        <v>12.69333333333334</v>
+      </c>
+      <c r="H236" t="n">
         <v>12.44499999999998</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8709,18 +10057,21 @@
         <v>15134.5106</v>
       </c>
       <c r="G237" t="n">
+        <v>12.70000000000001</v>
+      </c>
+      <c r="H237" t="n">
         <v>12.45333333333332</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8744,18 +10095,21 @@
         <v>50</v>
       </c>
       <c r="G238" t="n">
+        <v>12.71333333333334</v>
+      </c>
+      <c r="H238" t="n">
         <v>12.45999999999998</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8779,18 +10133,21 @@
         <v>15000</v>
       </c>
       <c r="G239" t="n">
+        <v>12.72666666666668</v>
+      </c>
+      <c r="H239" t="n">
         <v>12.46833333333332</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8814,18 +10171,21 @@
         <v>5170.8737</v>
       </c>
       <c r="G240" t="n">
+        <v>12.73333333333334</v>
+      </c>
+      <c r="H240" t="n">
         <v>12.47666666666665</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8849,18 +10209,21 @@
         <v>38171.7184</v>
       </c>
       <c r="G241" t="n">
+        <v>12.74666666666668</v>
+      </c>
+      <c r="H241" t="n">
         <v>12.48499999999998</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8884,18 +10247,21 @@
         <v>79256.0724</v>
       </c>
       <c r="G242" t="n">
+        <v>12.76000000000001</v>
+      </c>
+      <c r="H242" t="n">
         <v>12.49333333333332</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8919,18 +10285,401 @@
         <v>102303.9534</v>
       </c>
       <c r="G243" t="n">
+        <v>12.76666666666668</v>
+      </c>
+      <c r="H243" t="n">
         <v>12.50333333333331</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C244" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D244" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E244" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F244" t="n">
+        <v>105178.4436</v>
+      </c>
+      <c r="G244" t="n">
+        <v>12.76666666666668</v>
+      </c>
+      <c r="H244" t="n">
+        <v>12.51333333333331</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C245" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D245" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E245" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F245" t="n">
+        <v>104724.6402</v>
+      </c>
+      <c r="G245" t="n">
+        <v>12.76666666666668</v>
+      </c>
+      <c r="H245" t="n">
+        <v>12.52333333333331</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C246" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D246" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E246" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F246" t="n">
+        <v>10</v>
+      </c>
+      <c r="G246" t="n">
+        <v>12.77333333333334</v>
+      </c>
+      <c r="H246" t="n">
+        <v>12.53499999999998</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C247" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D247" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E247" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F247" t="n">
+        <v>43979.7197</v>
+      </c>
+      <c r="G247" t="n">
+        <v>12.77333333333334</v>
+      </c>
+      <c r="H247" t="n">
+        <v>12.54499999999998</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C248" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D248" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E248" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F248" t="n">
+        <v>37878.9843</v>
+      </c>
+      <c r="G248" t="n">
+        <v>12.77333333333334</v>
+      </c>
+      <c r="H248" t="n">
+        <v>12.55333333333331</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C249" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D249" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E249" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F249" t="n">
+        <v>32449.3858</v>
+      </c>
+      <c r="G249" t="n">
+        <v>12.77333333333334</v>
+      </c>
+      <c r="H249" t="n">
+        <v>12.56166666666664</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C250" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D250" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E250" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F250" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G250" t="n">
+        <v>12.76000000000001</v>
+      </c>
+      <c r="H250" t="n">
+        <v>12.56833333333331</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C251" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D251" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E251" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F251" t="n">
+        <v>25172.0812</v>
+      </c>
+      <c r="G251" t="n">
+        <v>12.74000000000001</v>
+      </c>
+      <c r="H251" t="n">
+        <v>12.57166666666664</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C252" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D252" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E252" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F252" t="n">
+        <v>23790</v>
+      </c>
+      <c r="G252" t="n">
+        <v>12.73333333333334</v>
+      </c>
+      <c r="H252" t="n">
+        <v>12.57833333333331</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C253" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E253" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F253" t="n">
+        <v>29991.375</v>
+      </c>
+      <c r="G253" t="n">
+        <v>12.72000000000001</v>
+      </c>
+      <c r="H253" t="n">
+        <v>12.58333333333331</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-29 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M282"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -436,19 +441,19 @@
         <v>12.2</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E2" t="n">
         <v>12.2</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>2653</v>
       </c>
       <c r="G2" t="n">
-        <v>-72951.11457540983</v>
+        <v>12.215</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C3" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D3" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E3" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F3" t="n">
-        <v>150881.1808</v>
+        <v>79708.5365</v>
       </c>
       <c r="G3" t="n">
-        <v>-72951.11457540983</v>
+        <v>12.22</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -512,13 +519,13 @@
         <v>12.2</v>
       </c>
       <c r="E4" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F4" t="n">
-        <v>126178</v>
+        <v>1302.136</v>
       </c>
       <c r="G4" t="n">
-        <v>-72951.11457540983</v>
+        <v>12.215</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C5" t="n">
         <v>12.2</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E5" t="n">
         <v>12.2</v>
       </c>
       <c r="F5" t="n">
-        <v>11310</v>
+        <v>1783.6956</v>
       </c>
       <c r="G5" t="n">
-        <v>-72951.11457540983</v>
+        <v>12.22</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C6" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E6" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F6" t="n">
-        <v>24002.6644</v>
+        <v>306252.0325</v>
       </c>
       <c r="G6" t="n">
-        <v>-72951.11457540983</v>
+        <v>12.225</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,10 +630,10 @@
         <v>12.3</v>
       </c>
       <c r="F7" t="n">
-        <v>9813</v>
+        <v>40482.3284</v>
       </c>
       <c r="G7" t="n">
-        <v>-63138.11457540983</v>
+        <v>12.225</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -655,10 +666,10 @@
         <v>12.3</v>
       </c>
       <c r="F8" t="n">
-        <v>61289.5121</v>
+        <v>61136.2883</v>
       </c>
       <c r="G8" t="n">
-        <v>-63138.11457540983</v>
+        <v>12.23500000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>30136.7491</v>
       </c>
       <c r="G9" t="n">
-        <v>-63160.11457540983</v>
+        <v>12.24500000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C10" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D10" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E10" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F10" t="n">
-        <v>48286.7286</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>-14873.38597540982</v>
+        <v>12.24000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C11" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D11" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E11" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>-14873.38597540982</v>
+        <v>12.24000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F12" t="n">
-        <v>32789.4258</v>
+        <v>37824.8286</v>
       </c>
       <c r="G12" t="n">
-        <v>-14873.38597540982</v>
+        <v>12.235</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D13" t="n">
         <v>12.2</v>
       </c>
       <c r="E13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G13" t="n">
-        <v>-14884.38597540982</v>
+        <v>12.23000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D14" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E14" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>-14884.38597540982</v>
+        <v>12.23000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -900,10 +918,10 @@
         <v>12.1</v>
       </c>
       <c r="F15" t="n">
-        <v>149729.3548</v>
+        <v>555332.5774508197</v>
       </c>
       <c r="G15" t="n">
-        <v>-164613.7407754098</v>
+        <v>12.225</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C16" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D16" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E16" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F16" t="n">
-        <v>178.8617886178862</v>
+        <v>20000</v>
       </c>
       <c r="G16" t="n">
-        <v>-164434.8789867919</v>
+        <v>12.21500000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>11067.6666</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>-164434.8789867919</v>
+        <v>12.20500000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C18" t="n">
         <v>12.1</v>
       </c>
       <c r="D18" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E18" t="n">
         <v>12.1</v>
       </c>
       <c r="F18" t="n">
-        <v>9500.831700000001</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>-173935.710686792</v>
+        <v>12.20000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>14050</v>
+        <v>6562.2418</v>
       </c>
       <c r="G19" t="n">
-        <v>-159885.710686792</v>
+        <v>12.19000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C20" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D20" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E20" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>13281.87594918033</v>
       </c>
       <c r="G20" t="n">
-        <v>-159885.710686792</v>
+        <v>12.19000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C21" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D21" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E21" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F21" t="n">
-        <v>157708.8346</v>
+        <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>-2176.876086791948</v>
+        <v>12.19500000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D22" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F22" t="n">
-        <v>36600.6775</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>-38777.55358679195</v>
+        <v>12.19000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C23" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D23" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E23" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>-38777.55358679195</v>
+        <v>12.18000000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C24" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D24" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E24" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F24" t="n">
-        <v>372.5409</v>
+        <v>35157.5409</v>
       </c>
       <c r="G24" t="n">
-        <v>-38405.01268679195</v>
+        <v>12.18000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C25" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D25" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E25" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>-38416.01268679195</v>
+        <v>12.17000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C26" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D26" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E26" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F26" t="n">
-        <v>243.9024</v>
+        <v>62138.6131</v>
       </c>
       <c r="G26" t="n">
-        <v>-38172.11028679195</v>
+        <v>12.16000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C27" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D27" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E27" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>-38182.11028679195</v>
+        <v>12.15000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C28" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D28" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E28" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F28" t="n">
-        <v>23927.9674</v>
+        <v>38116.97375081967</v>
       </c>
       <c r="G28" t="n">
-        <v>-38182.11028679195</v>
+        <v>12.14</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C29" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D29" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E29" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F29" t="n">
-        <v>29175.34405081967</v>
+        <v>7307.2539</v>
       </c>
       <c r="G29" t="n">
-        <v>-38182.11028679195</v>
+        <v>12.13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C30" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D30" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E30" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>4544.836</v>
       </c>
       <c r="G30" t="n">
-        <v>-38194.11028679195</v>
+        <v>12.13</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1451,19 +1485,19 @@
         <v>12.1</v>
       </c>
       <c r="C31" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D31" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E31" t="n">
         <v>12.1</v>
       </c>
       <c r="F31" t="n">
-        <v>27335.42634918033</v>
+        <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>-10858.68393761162</v>
+        <v>12.125</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C32" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D32" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E32" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>648.3606</v>
       </c>
       <c r="G32" t="n">
-        <v>-10848.68393761162</v>
+        <v>12.125</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C33" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D33" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E33" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F33" t="n">
-        <v>19.0119</v>
+        <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>-10867.69583761162</v>
+        <v>12.125</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C34" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D34" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E34" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>121320.9821</v>
       </c>
       <c r="G34" t="n">
-        <v>-10856.69583761162</v>
+        <v>12.115</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1600,10 +1638,10 @@
         <v>12.2</v>
       </c>
       <c r="F35" t="n">
-        <v>2968.965</v>
+        <v>13</v>
       </c>
       <c r="G35" t="n">
-        <v>-13825.66083761162</v>
+        <v>12.115</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C36" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D36" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E36" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F36" t="n">
         <v>13</v>
       </c>
       <c r="G36" t="n">
-        <v>-13812.66083761162</v>
+        <v>12.115</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C37" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D37" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E37" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F37" t="n">
-        <v>394.3902</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>-14207.05103761162</v>
+        <v>12.12</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C38" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E38" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>4024.8588</v>
+        <v>235458.3812</v>
       </c>
       <c r="G38" t="n">
-        <v>-10182.19223761162</v>
+        <v>12.12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F39" t="n">
         <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>-10193.19223761162</v>
+        <v>12.125</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C40" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D40" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E40" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F40" t="n">
-        <v>25</v>
+        <v>4564.5965</v>
       </c>
       <c r="G40" t="n">
-        <v>-10193.19223761162</v>
+        <v>12.125</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D41" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E41" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>112170.5364</v>
+        <v>2948.0867</v>
       </c>
       <c r="G41" t="n">
-        <v>-10193.19223761162</v>
+        <v>12.115</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>-10203.19223761162</v>
+        <v>12.11</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1874,16 +1920,16 @@
         <v>12.1</v>
       </c>
       <c r="D43" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E43" t="n">
         <v>12.1</v>
       </c>
       <c r="F43" t="n">
-        <v>2823</v>
+        <v>45.2066</v>
       </c>
       <c r="G43" t="n">
-        <v>-10203.19223761162</v>
+        <v>12.11</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C44" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D44" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E44" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F44" t="n">
-        <v>2653</v>
+        <v>11274.1322</v>
       </c>
       <c r="G44" t="n">
-        <v>-7550.192237611618</v>
+        <v>12.105</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C45" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D45" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E45" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F45" t="n">
-        <v>79708.5365</v>
+        <v>9635.6214</v>
       </c>
       <c r="G45" t="n">
-        <v>-7550.192237611618</v>
+        <v>12.105</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,13 +2015,14 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C46" t="n">
         <v>12.2</v>
@@ -1982,13 +2031,13 @@
         <v>12.2</v>
       </c>
       <c r="E46" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F46" t="n">
-        <v>1302.136</v>
+        <v>50508.5042</v>
       </c>
       <c r="G46" t="n">
-        <v>-8852.328237611619</v>
+        <v>12.105</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C47" t="n">
         <v>12.2</v>
       </c>
       <c r="D47" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E47" t="n">
         <v>12.2</v>
       </c>
       <c r="F47" t="n">
-        <v>1783.6956</v>
+        <v>69559.8385</v>
       </c>
       <c r="G47" t="n">
-        <v>-8852.328237611619</v>
+        <v>12.11</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C48" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D48" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E48" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F48" t="n">
-        <v>306252.0325</v>
+        <v>274220.8264</v>
       </c>
       <c r="G48" t="n">
-        <v>297399.7042623883</v>
+        <v>12.11</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>40482.3284</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>297399.7042623883</v>
+        <v>12.105</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C50" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D50" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E50" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F50" t="n">
-        <v>61136.2883</v>
+        <v>9107.0506</v>
       </c>
       <c r="G50" t="n">
-        <v>297399.7042623883</v>
+        <v>12.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C51" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D51" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E51" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F51" t="n">
-        <v>30136.7491</v>
+        <v>51878.5123</v>
       </c>
       <c r="G51" t="n">
-        <v>297399.7042623883</v>
+        <v>12.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C52" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D52" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E52" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F52" t="n">
-        <v>11</v>
+        <v>4451.971</v>
       </c>
       <c r="G52" t="n">
-        <v>297388.7042623883</v>
+        <v>12.095</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C53" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E53" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>13</v>
+        <v>615055.5162</v>
       </c>
       <c r="G53" t="n">
-        <v>297388.7042623883</v>
+        <v>12.09000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C54" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E54" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F54" t="n">
-        <v>37824.8286</v>
+        <v>272.7481</v>
       </c>
       <c r="G54" t="n">
-        <v>297388.7042623883</v>
+        <v>12.08000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>15973.4131</v>
       </c>
       <c r="G55" t="n">
-        <v>297344.7042623883</v>
+        <v>12.07000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C56" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D56" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E56" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G56" t="n">
-        <v>297355.7042623883</v>
+        <v>12.07000000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C57" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>555332.5774508197</v>
+        <v>35069.647</v>
       </c>
       <c r="G57" t="n">
-        <v>-257976.8731884313</v>
+        <v>12.06500000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2405,10 +2466,10 @@
         <v>12.1</v>
       </c>
       <c r="F58" t="n">
-        <v>20000</v>
+        <v>52168.6081</v>
       </c>
       <c r="G58" t="n">
-        <v>-257976.8731884313</v>
+        <v>12.06500000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F59" t="n">
-        <v>11</v>
+        <v>163124.0100421488</v>
       </c>
       <c r="G59" t="n">
-        <v>-257987.8731884313</v>
+        <v>12.06500000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2475,10 +2538,10 @@
         <v>12.1</v>
       </c>
       <c r="F60" t="n">
-        <v>12</v>
+        <v>43858.7438</v>
       </c>
       <c r="G60" t="n">
-        <v>-257975.8731884313</v>
+        <v>12.06500000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C61" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F61" t="n">
-        <v>6562.2418</v>
+        <v>298064.3743</v>
       </c>
       <c r="G61" t="n">
-        <v>-264538.1149884313</v>
+        <v>12.07000000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2545,10 +2610,10 @@
         <v>12.1</v>
       </c>
       <c r="F62" t="n">
-        <v>13281.87594918033</v>
+        <v>4132.231404958678</v>
       </c>
       <c r="G62" t="n">
-        <v>-251256.239039251</v>
+        <v>12.07500000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C63" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D63" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E63" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F63" t="n">
-        <v>19</v>
+        <v>49718.77475289256</v>
       </c>
       <c r="G63" t="n">
-        <v>-251237.239039251</v>
+        <v>12.07500000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2615,10 +2682,10 @@
         <v>12.1</v>
       </c>
       <c r="F64" t="n">
-        <v>12</v>
+        <v>100000</v>
       </c>
       <c r="G64" t="n">
-        <v>-251249.239039251</v>
+        <v>12.07500000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C65" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D65" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E65" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>37941.1716</v>
       </c>
       <c r="G65" t="n">
-        <v>-251249.239039251</v>
+        <v>12.08000000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2685,10 +2754,10 @@
         <v>12.2</v>
       </c>
       <c r="F66" t="n">
-        <v>35157.5409</v>
+        <v>65245.9016</v>
       </c>
       <c r="G66" t="n">
-        <v>-216091.698139251</v>
+        <v>12.085</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2720,10 +2790,10 @@
         <v>12.1</v>
       </c>
       <c r="F67" t="n">
-        <v>13</v>
+        <v>128379.4829</v>
       </c>
       <c r="G67" t="n">
-        <v>-216104.698139251</v>
+        <v>12.08000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,13 +2807,14 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C68" t="n">
         <v>12.2</v>
@@ -2752,13 +2823,13 @@
         <v>12.2</v>
       </c>
       <c r="E68" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F68" t="n">
-        <v>62138.6131</v>
+        <v>42.1639</v>
       </c>
       <c r="G68" t="n">
-        <v>-153966.085039251</v>
+        <v>12.085</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C69" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D69" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E69" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F69" t="n">
-        <v>14</v>
+        <v>45644.3739</v>
       </c>
       <c r="G69" t="n">
-        <v>-153980.085039251</v>
+        <v>12.095</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2816,19 +2889,19 @@
         <v>12.1</v>
       </c>
       <c r="C70" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D70" t="n">
         <v>12.1</v>
       </c>
       <c r="E70" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F70" t="n">
-        <v>38116.97375081967</v>
+        <v>483758.2064</v>
       </c>
       <c r="G70" t="n">
-        <v>-153980.085039251</v>
+        <v>12.095</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C71" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D71" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E71" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F71" t="n">
-        <v>7307.2539</v>
+        <v>69.1147</v>
       </c>
       <c r="G71" t="n">
-        <v>-153980.085039251</v>
+        <v>12.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C72" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D72" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E72" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F72" t="n">
-        <v>4544.836</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>-149435.249039251</v>
+        <v>12.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2930,10 +3006,10 @@
         <v>12.1</v>
       </c>
       <c r="F73" t="n">
-        <v>13</v>
+        <v>3830</v>
       </c>
       <c r="G73" t="n">
-        <v>-149448.249039251</v>
+        <v>12.105</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D74" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F74" t="n">
-        <v>648.3606</v>
+        <v>808971.4957</v>
       </c>
       <c r="G74" t="n">
-        <v>-149448.249039251</v>
+        <v>12.11</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C75" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D75" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F75" t="n">
-        <v>50</v>
+        <v>108.6616</v>
       </c>
       <c r="G75" t="n">
-        <v>-149448.249039251</v>
+        <v>12.11</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C76" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F76" t="n">
-        <v>121320.9821</v>
+        <v>16842.966</v>
       </c>
       <c r="G76" t="n">
-        <v>-149448.249039251</v>
+        <v>12.105</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C77" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D77" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E77" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F77" t="n">
-        <v>13</v>
+        <v>330.5785</v>
       </c>
       <c r="G77" t="n">
-        <v>-149435.249039251</v>
+        <v>12.11</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3105,10 +3186,10 @@
         <v>12.1</v>
       </c>
       <c r="F78" t="n">
-        <v>13</v>
+        <v>23506.77685950413</v>
       </c>
       <c r="G78" t="n">
-        <v>-149448.249039251</v>
+        <v>12.11</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3140,10 +3222,10 @@
         <v>12.1</v>
       </c>
       <c r="F79" t="n">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="G79" t="n">
-        <v>-149448.249039251</v>
+        <v>12.11</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3166,19 +3249,19 @@
         <v>12.1</v>
       </c>
       <c r="C80" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D80" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E80" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F80" t="n">
-        <v>235458.3812</v>
+        <v>108799.9109</v>
       </c>
       <c r="G80" t="n">
-        <v>-384906.630239251</v>
+        <v>12.11</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3210,10 +3294,10 @@
         <v>12.1</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>2640</v>
       </c>
       <c r="G81" t="n">
-        <v>-384895.630239251</v>
+        <v>12.11</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3245,10 +3330,10 @@
         <v>12.1</v>
       </c>
       <c r="F82" t="n">
-        <v>4564.5965</v>
+        <v>28954.0909</v>
       </c>
       <c r="G82" t="n">
-        <v>-384895.630239251</v>
+        <v>12.11</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3271,19 +3357,19 @@
         <v>12</v>
       </c>
       <c r="C83" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E83" t="n">
         <v>12</v>
       </c>
       <c r="F83" t="n">
-        <v>2948.0867</v>
+        <v>132967.2887</v>
       </c>
       <c r="G83" t="n">
-        <v>-384895.630239251</v>
+        <v>12.105</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3315,10 +3402,10 @@
         <v>12</v>
       </c>
       <c r="F84" t="n">
-        <v>11</v>
+        <v>26260.6961</v>
       </c>
       <c r="G84" t="n">
-        <v>-384906.630239251</v>
+        <v>12.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3350,10 +3438,10 @@
         <v>12.1</v>
       </c>
       <c r="F85" t="n">
-        <v>45.2066</v>
+        <v>28109.17355371901</v>
       </c>
       <c r="G85" t="n">
-        <v>-384861.423639251</v>
+        <v>12.095</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3385,10 +3474,10 @@
         <v>12.1</v>
       </c>
       <c r="F86" t="n">
-        <v>11274.1322</v>
+        <v>70914.15974628099</v>
       </c>
       <c r="G86" t="n">
-        <v>-384861.423639251</v>
+        <v>12.09000000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3420,10 +3510,10 @@
         <v>12.1</v>
       </c>
       <c r="F87" t="n">
-        <v>9635.6214</v>
+        <v>120667.1273</v>
       </c>
       <c r="G87" t="n">
-        <v>-384861.423639251</v>
+        <v>12.09000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,13 +3527,14 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C88" t="n">
         <v>12.2</v>
@@ -3452,13 +3543,13 @@
         <v>12.2</v>
       </c>
       <c r="E88" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F88" t="n">
-        <v>50508.5042</v>
+        <v>857.2065</v>
       </c>
       <c r="G88" t="n">
-        <v>-334352.919439251</v>
+        <v>12.09000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C89" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D89" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E89" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F89" t="n">
-        <v>69559.8385</v>
+        <v>51180.4237</v>
       </c>
       <c r="G89" t="n">
-        <v>-334352.919439251</v>
+        <v>12.085</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3525,10 +3618,10 @@
         <v>12.1</v>
       </c>
       <c r="F90" t="n">
-        <v>274220.8264</v>
+        <v>45333.82635371901</v>
       </c>
       <c r="G90" t="n">
-        <v>-608573.745839251</v>
+        <v>12.085</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C91" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D91" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E91" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F91" t="n">
-        <v>11</v>
+        <v>10000</v>
       </c>
       <c r="G91" t="n">
-        <v>-608584.745839251</v>
+        <v>12.08000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3595,10 +3690,10 @@
         <v>12.1</v>
       </c>
       <c r="F92" t="n">
-        <v>9107.0506</v>
+        <v>48228.5121</v>
       </c>
       <c r="G92" t="n">
-        <v>-599477.695239251</v>
+        <v>12.08000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C93" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D93" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E93" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F93" t="n">
-        <v>51878.5123</v>
+        <v>4000</v>
       </c>
       <c r="G93" t="n">
-        <v>-651356.2075392511</v>
+        <v>12.085</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C94" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D94" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E94" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F94" t="n">
-        <v>4451.971</v>
+        <v>6000</v>
       </c>
       <c r="G94" t="n">
-        <v>-651356.2075392511</v>
+        <v>12.095</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E95" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F95" t="n">
-        <v>615055.5162</v>
+        <v>6000</v>
       </c>
       <c r="G95" t="n">
-        <v>-1266411.723739251</v>
+        <v>12.105</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D96" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E96" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F96" t="n">
-        <v>272.7481</v>
+        <v>6000</v>
       </c>
       <c r="G96" t="n">
-        <v>-1266411.723739251</v>
+        <v>12.115</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D97" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E97" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F97" t="n">
-        <v>15973.4131</v>
+        <v>6350</v>
       </c>
       <c r="G97" t="n">
-        <v>-1266411.723739251</v>
+        <v>12.115</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C98" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D98" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E98" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F98" t="n">
-        <v>13</v>
+        <v>4000</v>
       </c>
       <c r="G98" t="n">
-        <v>-1266398.723739251</v>
+        <v>12.12</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D99" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E99" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F99" t="n">
-        <v>35069.647</v>
+        <v>4000</v>
       </c>
       <c r="G99" t="n">
-        <v>-1301468.370739251</v>
+        <v>12.125</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C100" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D100" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E100" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F100" t="n">
-        <v>52168.6081</v>
+        <v>4768.2733</v>
       </c>
       <c r="G100" t="n">
-        <v>-1249299.762639251</v>
+        <v>12.13</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C101" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D101" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E101" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F101" t="n">
-        <v>163124.0100421488</v>
+        <v>1983.7398</v>
       </c>
       <c r="G101" t="n">
-        <v>-1249299.762639251</v>
+        <v>12.135</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C102" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D102" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E102" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F102" t="n">
-        <v>43858.7438</v>
+        <v>3967.4797</v>
       </c>
       <c r="G102" t="n">
-        <v>-1249299.762639251</v>
+        <v>12.14</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C103" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D103" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E103" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F103" t="n">
-        <v>298064.3743</v>
+        <v>698.4497</v>
       </c>
       <c r="G103" t="n">
-        <v>-1249299.762639251</v>
+        <v>12.15</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F104" t="n">
-        <v>4132.231404958678</v>
+        <v>123131.4445867769</v>
       </c>
       <c r="G104" t="n">
-        <v>-1249299.762639251</v>
+        <v>12.16</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C105" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D105" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E105" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F105" t="n">
-        <v>49718.77475289256</v>
+        <v>26739.756</v>
       </c>
       <c r="G105" t="n">
-        <v>-1249299.762639251</v>
+        <v>12.17</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F106" t="n">
-        <v>100000</v>
+        <v>4000</v>
       </c>
       <c r="G106" t="n">
-        <v>-1249299.762639251</v>
+        <v>12.175</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,6 +4211,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4111,19 +4221,19 @@
         <v>12.2</v>
       </c>
       <c r="C107" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D107" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E107" t="n">
         <v>12.2</v>
       </c>
       <c r="F107" t="n">
-        <v>37941.1716</v>
+        <v>71652.02039999999</v>
       </c>
       <c r="G107" t="n">
-        <v>-1211358.591039251</v>
+        <v>12.18</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C108" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D108" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E108" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F108" t="n">
-        <v>65245.9016</v>
+        <v>9451.071</v>
       </c>
       <c r="G108" t="n">
-        <v>-1211358.591039251</v>
+        <v>12.185</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C109" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D109" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E109" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F109" t="n">
-        <v>128379.4829</v>
+        <v>17083</v>
       </c>
       <c r="G109" t="n">
-        <v>-1339738.073939251</v>
+        <v>12.19</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C110" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D110" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E110" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F110" t="n">
-        <v>42.1639</v>
+        <v>217316.456</v>
       </c>
       <c r="G110" t="n">
-        <v>-1339695.910039251</v>
+        <v>12.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,6 +4355,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4260,10 +4374,10 @@
         <v>12.2</v>
       </c>
       <c r="F111" t="n">
-        <v>45644.3739</v>
+        <v>8029</v>
       </c>
       <c r="G111" t="n">
-        <v>-1339695.910039251</v>
+        <v>12.205</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C112" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D112" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E112" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F112" t="n">
-        <v>483758.2064</v>
+        <v>5019</v>
       </c>
       <c r="G112" t="n">
-        <v>-1823454.116439251</v>
+        <v>12.21</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,6 +4427,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4330,10 +4446,10 @@
         <v>12.2</v>
       </c>
       <c r="F113" t="n">
-        <v>69.1147</v>
+        <v>4926</v>
       </c>
       <c r="G113" t="n">
-        <v>-1823385.001739251</v>
+        <v>12.21</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C114" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D114" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E114" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>3465</v>
       </c>
       <c r="G114" t="n">
-        <v>-1823395.001739251</v>
+        <v>12.21</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C115" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D115" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E115" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F115" t="n">
-        <v>3830</v>
+        <v>13294.9999</v>
       </c>
       <c r="G115" t="n">
-        <v>-1823395.001739251</v>
+        <v>12.21</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C116" t="n">
         <v>12</v>
       </c>
-      <c r="C116" t="n">
-        <v>11.9</v>
-      </c>
       <c r="D116" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E116" t="n">
         <v>12</v>
       </c>
-      <c r="E116" t="n">
-        <v>11.9</v>
-      </c>
       <c r="F116" t="n">
-        <v>808971.4957</v>
+        <v>95785</v>
       </c>
       <c r="G116" t="n">
-        <v>-2632366.497439251</v>
+        <v>12.20500000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C117" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D117" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F117" t="n">
-        <v>108.6616</v>
+        <v>8712</v>
       </c>
       <c r="G117" t="n">
-        <v>-2632257.835839251</v>
+        <v>12.20500000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C118" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D118" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E118" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F118" t="n">
-        <v>16842.966</v>
+        <v>4674</v>
       </c>
       <c r="G118" t="n">
-        <v>-2632257.835839251</v>
+        <v>12.20000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,63 +4643,69 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C119" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D119" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E119" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F119" t="n">
-        <v>330.5785</v>
+        <v>37362.6229</v>
       </c>
       <c r="G119" t="n">
-        <v>-2631927.257339251</v>
+        <v>12.20000000000001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C120" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D120" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E120" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F120" t="n">
-        <v>23506.77685950413</v>
+        <v>56250.7104</v>
       </c>
       <c r="G120" t="n">
-        <v>-2631927.257339251</v>
+        <v>12.20000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,33 +4714,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C121" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D121" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E121" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F121" t="n">
-        <v>449</v>
+        <v>47093.6884</v>
       </c>
       <c r="G121" t="n">
-        <v>-2631927.257339251</v>
+        <v>12.20000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,11 +4756,18 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4636,19 +4777,19 @@
         <v>12.1</v>
       </c>
       <c r="C122" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D122" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E122" t="n">
         <v>12.1</v>
       </c>
       <c r="F122" t="n">
-        <v>108799.9109</v>
+        <v>101477.8399</v>
       </c>
       <c r="G122" t="n">
-        <v>-2523127.346439251</v>
+        <v>12.19500000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4803,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C123" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D123" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E123" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F123" t="n">
-        <v>2640</v>
+        <v>21684.5773</v>
       </c>
       <c r="G123" t="n">
-        <v>-2525767.346439251</v>
+        <v>12.19500000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,6 +4839,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4715,10 +4858,10 @@
         <v>12.1</v>
       </c>
       <c r="F124" t="n">
-        <v>28954.0909</v>
+        <v>58279</v>
       </c>
       <c r="G124" t="n">
-        <v>-2525767.346439251</v>
+        <v>12.19000000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4875,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C125" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D125" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E125" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F125" t="n">
-        <v>132967.2887</v>
+        <v>26427.5994</v>
       </c>
       <c r="G125" t="n">
-        <v>-2658734.635139251</v>
+        <v>12.18000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4911,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C126" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D126" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E126" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F126" t="n">
-        <v>26260.6961</v>
+        <v>55356.5188</v>
       </c>
       <c r="G126" t="n">
-        <v>-2658734.635139251</v>
+        <v>12.17500000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,6 +4947,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4820,10 +4966,10 @@
         <v>12.1</v>
       </c>
       <c r="F127" t="n">
-        <v>28109.17355371901</v>
+        <v>420</v>
       </c>
       <c r="G127" t="n">
-        <v>-2630625.461585531</v>
+        <v>12.17000000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,6 +4983,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4855,10 +5002,10 @@
         <v>12.1</v>
       </c>
       <c r="F128" t="n">
-        <v>70914.15974628099</v>
+        <v>1000</v>
       </c>
       <c r="G128" t="n">
-        <v>-2630625.461585531</v>
+        <v>12.16000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,6 +5019,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4890,10 +5038,10 @@
         <v>12.1</v>
       </c>
       <c r="F129" t="n">
-        <v>120667.1273</v>
+        <v>20917.459</v>
       </c>
       <c r="G129" t="n">
-        <v>-2630625.461585531</v>
+        <v>12.15500000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5055,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C130" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D130" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E130" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F130" t="n">
-        <v>857.2065</v>
+        <v>139037.438</v>
       </c>
       <c r="G130" t="n">
-        <v>-2629768.255085532</v>
+        <v>12.14500000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,6 +5091,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4960,23 +5110,28 @@
         <v>12.1</v>
       </c>
       <c r="F131" t="n">
-        <v>51180.4237</v>
+        <v>450000</v>
       </c>
       <c r="G131" t="n">
-        <v>-2680948.678785532</v>
+        <v>12.14000000000001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4995,65 +5150,83 @@
         <v>12.1</v>
       </c>
       <c r="F132" t="n">
-        <v>45333.82635371901</v>
+        <v>19137.2205</v>
       </c>
       <c r="G132" t="n">
-        <v>-2680948.678785532</v>
+        <v>12.13500000000001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C133" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D133" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E133" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F133" t="n">
-        <v>10000</v>
+        <v>167379.5901</v>
       </c>
       <c r="G133" t="n">
-        <v>-2680948.678785532</v>
+        <v>12.13500000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C134" t="n">
         <v>12.2</v>
@@ -5062,96 +5235,119 @@
         <v>12.2</v>
       </c>
       <c r="E134" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F134" t="n">
-        <v>48228.5121</v>
+        <v>96740.3168</v>
       </c>
       <c r="G134" t="n">
-        <v>-2632720.166685532</v>
+        <v>12.13500000000001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C135" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D135" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E135" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F135" t="n">
-        <v>4000</v>
+        <v>263.307</v>
       </c>
       <c r="G135" t="n">
-        <v>-2632720.166685532</v>
+        <v>12.13000000000001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K135" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C136" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D136" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E136" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F136" t="n">
-        <v>6000</v>
+        <v>21602.2626</v>
       </c>
       <c r="G136" t="n">
-        <v>-2632720.166685532</v>
+        <v>12.13000000000001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5170,23 +5366,28 @@
         <v>12.2</v>
       </c>
       <c r="F137" t="n">
-        <v>6000</v>
+        <v>13</v>
       </c>
       <c r="G137" t="n">
-        <v>-2632720.166685532</v>
+        <v>12.13500000000001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5196,39 +5397,48 @@
         <v>12.2</v>
       </c>
       <c r="C138" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D138" t="n">
         <v>12.2</v>
       </c>
       <c r="E138" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F138" t="n">
-        <v>6000</v>
+        <v>5942.1311</v>
       </c>
       <c r="G138" t="n">
-        <v>-2638720.166685532</v>
+        <v>12.14000000000001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K138" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C139" t="n">
         <v>12.2</v>
@@ -5237,13 +5447,13 @@
         <v>12.2</v>
       </c>
       <c r="E139" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F139" t="n">
-        <v>6350</v>
+        <v>41341.127</v>
       </c>
       <c r="G139" t="n">
-        <v>-2632370.166685532</v>
+        <v>12.14000000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,11 +5462,18 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5275,10 +5492,10 @@
         <v>12.2</v>
       </c>
       <c r="F140" t="n">
-        <v>4000</v>
+        <v>62011.7213</v>
       </c>
       <c r="G140" t="n">
-        <v>-2632370.166685532</v>
+        <v>12.14000000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,6 +5509,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5310,10 +5528,10 @@
         <v>12.2</v>
       </c>
       <c r="F141" t="n">
-        <v>4000</v>
+        <v>62011.7213</v>
       </c>
       <c r="G141" t="n">
-        <v>-2632370.166685532</v>
+        <v>12.14000000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,6 +5545,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5345,10 +5564,10 @@
         <v>12.2</v>
       </c>
       <c r="F142" t="n">
-        <v>4768.2733</v>
+        <v>167402.5099</v>
       </c>
       <c r="G142" t="n">
-        <v>-2632370.166685532</v>
+        <v>12.14500000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,6 +5581,7 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5380,10 +5600,10 @@
         <v>12.2</v>
       </c>
       <c r="F143" t="n">
-        <v>1983.7398</v>
+        <v>731.7433</v>
       </c>
       <c r="G143" t="n">
-        <v>-2632370.166685532</v>
+        <v>12.14500000000001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,28 +5617,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C144" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D144" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E144" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F144" t="n">
-        <v>3967.4797</v>
+        <v>151494.8287</v>
       </c>
       <c r="G144" t="n">
-        <v>-2632370.166685532</v>
+        <v>12.15500000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,28 +5653,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C145" t="n">
         <v>12.2</v>
       </c>
       <c r="D145" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E145" t="n">
         <v>12.2</v>
       </c>
       <c r="F145" t="n">
-        <v>698.4497</v>
+        <v>64230.0626</v>
       </c>
       <c r="G145" t="n">
-        <v>-2632370.166685532</v>
+        <v>12.16500000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,28 +5689,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C146" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D146" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E146" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F146" t="n">
-        <v>123131.4445867769</v>
+        <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>-2632370.166685532</v>
+        <v>12.17500000000001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,6 +5725,7 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5520,10 +5744,10 @@
         <v>12.3</v>
       </c>
       <c r="F147" t="n">
-        <v>26739.756</v>
+        <v>26810</v>
       </c>
       <c r="G147" t="n">
-        <v>-2605630.410685532</v>
+        <v>12.18500000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,28 +5761,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C148" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D148" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E148" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F148" t="n">
-        <v>4000</v>
+        <v>165415.2032</v>
       </c>
       <c r="G148" t="n">
-        <v>-2609630.410685532</v>
+        <v>12.19500000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5572,6 +5797,7 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5581,19 +5807,19 @@
         <v>12.2</v>
       </c>
       <c r="C149" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D149" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E149" t="n">
         <v>12.2</v>
       </c>
       <c r="F149" t="n">
-        <v>71652.02039999999</v>
+        <v>8821.055</v>
       </c>
       <c r="G149" t="n">
-        <v>-2537978.390285532</v>
+        <v>12.20000000000002</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5607,6 +5833,7 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5625,10 +5852,10 @@
         <v>12.3</v>
       </c>
       <c r="F150" t="n">
-        <v>9451.071</v>
+        <v>100020</v>
       </c>
       <c r="G150" t="n">
-        <v>-2537978.390285532</v>
+        <v>12.21000000000002</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5642,6 +5869,7 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5660,10 +5888,10 @@
         <v>12.2</v>
       </c>
       <c r="F151" t="n">
-        <v>17083</v>
+        <v>10000</v>
       </c>
       <c r="G151" t="n">
-        <v>-2555061.390285532</v>
+        <v>12.21500000000002</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5677,6 +5905,7 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5695,10 +5924,10 @@
         <v>12.3</v>
       </c>
       <c r="F152" t="n">
-        <v>217316.456</v>
+        <v>33</v>
       </c>
       <c r="G152" t="n">
-        <v>-2337744.934285532</v>
+        <v>12.22500000000002</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5712,6 +5941,7 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5730,10 +5960,10 @@
         <v>12.2</v>
       </c>
       <c r="F153" t="n">
-        <v>8029</v>
+        <v>78830.80809999999</v>
       </c>
       <c r="G153" t="n">
-        <v>-2345773.934285532</v>
+        <v>12.22500000000002</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5747,28 +5977,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C154" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D154" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E154" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F154" t="n">
-        <v>5019</v>
+        <v>25460.3616</v>
       </c>
       <c r="G154" t="n">
-        <v>-2345773.934285532</v>
+        <v>12.22000000000002</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5782,28 +6013,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C155" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D155" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E155" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F155" t="n">
-        <v>4926</v>
+        <v>192120.3065658537</v>
       </c>
       <c r="G155" t="n">
-        <v>-2345773.934285532</v>
+        <v>12.23000000000002</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5817,28 +6049,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C156" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D156" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E156" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F156" t="n">
-        <v>3465</v>
+        <v>56</v>
       </c>
       <c r="G156" t="n">
-        <v>-2345773.934285532</v>
+        <v>12.24000000000002</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5852,6 +6085,7 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5870,10 +6104,10 @@
         <v>12.2</v>
       </c>
       <c r="F157" t="n">
-        <v>13294.9999</v>
+        <v>242775.9882</v>
       </c>
       <c r="G157" t="n">
-        <v>-2345773.934285532</v>
+        <v>12.24000000000002</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5887,28 +6121,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C158" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="D158" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E158" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="F158" t="n">
-        <v>95785</v>
+        <v>477359.8012</v>
       </c>
       <c r="G158" t="n">
-        <v>-2441558.934285532</v>
+        <v>12.24500000000002</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5922,28 +6157,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C159" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D159" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E159" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F159" t="n">
-        <v>8712</v>
+        <v>56638.5261</v>
       </c>
       <c r="G159" t="n">
-        <v>-2432846.934285532</v>
+        <v>12.24500000000002</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5957,28 +6193,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C160" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D160" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E160" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F160" t="n">
-        <v>4674</v>
+        <v>2693.8334</v>
       </c>
       <c r="G160" t="n">
-        <v>-2432846.934285532</v>
+        <v>12.24500000000002</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5992,6 +6229,7 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6010,10 +6248,10 @@
         <v>12.2</v>
       </c>
       <c r="F161" t="n">
-        <v>37362.6229</v>
+        <v>107613.1997</v>
       </c>
       <c r="G161" t="n">
-        <v>-2395484.311385532</v>
+        <v>12.24500000000002</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6027,6 +6265,7 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6045,10 +6284,10 @@
         <v>12.2</v>
       </c>
       <c r="F162" t="n">
-        <v>56250.7104</v>
+        <v>8712.3781</v>
       </c>
       <c r="G162" t="n">
-        <v>-2395484.311385532</v>
+        <v>12.24500000000002</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6062,6 +6301,7 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6080,10 +6320,10 @@
         <v>12.2</v>
       </c>
       <c r="F163" t="n">
-        <v>47093.6884</v>
+        <v>88499.2179</v>
       </c>
       <c r="G163" t="n">
-        <v>-2395484.311385532</v>
+        <v>12.24500000000002</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6097,28 +6337,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C164" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D164" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E164" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F164" t="n">
-        <v>101477.8399</v>
+        <v>41229.9831</v>
       </c>
       <c r="G164" t="n">
-        <v>-2496962.151285532</v>
+        <v>12.24000000000002</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6132,28 +6373,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C165" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D165" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E165" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F165" t="n">
-        <v>21684.5773</v>
+        <v>81300.81300813008</v>
       </c>
       <c r="G165" t="n">
-        <v>-2475277.573985532</v>
+        <v>12.24000000000002</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6167,28 +6409,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C166" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D166" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E166" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F166" t="n">
-        <v>58279</v>
+        <v>10227</v>
       </c>
       <c r="G166" t="n">
-        <v>-2533556.573985532</v>
+        <v>12.24000000000002</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6202,28 +6445,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C167" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D167" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E167" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F167" t="n">
-        <v>26427.5994</v>
+        <v>60538.0422</v>
       </c>
       <c r="G167" t="n">
-        <v>-2533556.573985532</v>
+        <v>12.23500000000002</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6237,28 +6481,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C168" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D168" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E168" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F168" t="n">
-        <v>55356.5188</v>
+        <v>19</v>
       </c>
       <c r="G168" t="n">
-        <v>-2533556.573985532</v>
+        <v>12.23500000000002</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6272,295 +6517,259 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C169" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D169" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E169" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F169" t="n">
-        <v>420</v>
+        <v>31058.637</v>
       </c>
       <c r="G169" t="n">
-        <v>-2533556.573985532</v>
+        <v>12.24000000000002</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K169" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C170" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D170" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E170" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F170" t="n">
-        <v>1000</v>
+        <v>23451.9231</v>
       </c>
       <c r="G170" t="n">
-        <v>-2533556.573985532</v>
+        <v>12.23500000000002</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K170" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C171" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D171" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E171" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F171" t="n">
-        <v>20917.459</v>
+        <v>62417.6937</v>
       </c>
       <c r="G171" t="n">
-        <v>-2533556.573985532</v>
+        <v>12.23500000000002</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K171" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C172" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D172" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E172" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F172" t="n">
-        <v>139037.438</v>
+        <v>126195.0036</v>
       </c>
       <c r="G172" t="n">
-        <v>-2533556.573985532</v>
+        <v>12.23000000000002</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K172" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C173" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D173" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E173" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F173" t="n">
-        <v>450000</v>
+        <v>94646.2527</v>
       </c>
       <c r="G173" t="n">
-        <v>-2533556.573985532</v>
+        <v>12.23000000000002</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K173" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C174" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D174" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E174" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F174" t="n">
-        <v>19137.2205</v>
+        <v>57172.9396</v>
       </c>
       <c r="G174" t="n">
-        <v>-2533556.573985532</v>
+        <v>12.23500000000002</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K174" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C175" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D175" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E175" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F175" t="n">
-        <v>167379.5901</v>
+        <v>8069.6347</v>
       </c>
       <c r="G175" t="n">
-        <v>-2366176.983885532</v>
+        <v>12.23500000000002</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K175" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6579,53 +6788,46 @@
         <v>12.2</v>
       </c>
       <c r="F176" t="n">
-        <v>96740.3168</v>
+        <v>2870</v>
       </c>
       <c r="G176" t="n">
-        <v>-2366176.983885532</v>
+        <v>12.23000000000001</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K176" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C177" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D177" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E177" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F177" t="n">
-        <v>263.307</v>
+        <v>1068</v>
       </c>
       <c r="G177" t="n">
-        <v>-2366440.290885532</v>
+        <v>12.23000000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6634,39 +6836,34 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C178" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D178" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E178" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F178" t="n">
-        <v>21602.2626</v>
+        <v>101838.5621</v>
       </c>
       <c r="G178" t="n">
-        <v>-2366440.290885532</v>
+        <v>12.23000000000001</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6680,6 +6877,7 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6698,10 +6896,10 @@
         <v>12.2</v>
       </c>
       <c r="F179" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G179" t="n">
-        <v>-2366427.290885532</v>
+        <v>12.23000000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6715,6 +6913,7 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6733,10 +6932,10 @@
         <v>12.2</v>
       </c>
       <c r="F180" t="n">
-        <v>5942.1311</v>
+        <v>48425.9398</v>
       </c>
       <c r="G180" t="n">
-        <v>-2366427.290885532</v>
+        <v>12.23000000000001</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6750,28 +6949,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C181" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D181" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E181" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F181" t="n">
-        <v>41341.127</v>
+        <v>107674.1192</v>
       </c>
       <c r="G181" t="n">
-        <v>-2366427.290885532</v>
+        <v>12.23500000000002</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6785,28 +6985,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C182" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D182" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E182" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F182" t="n">
-        <v>62011.7213</v>
+        <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>-2366427.290885532</v>
+        <v>12.24000000000002</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6820,28 +7021,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C183" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D183" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E183" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F183" t="n">
-        <v>62011.7213</v>
+        <v>309714.3548</v>
       </c>
       <c r="G183" t="n">
-        <v>-2366427.290885532</v>
+        <v>12.25000000000002</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6855,28 +7057,29 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C184" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D184" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E184" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F184" t="n">
-        <v>167402.5099</v>
+        <v>27286.0563</v>
       </c>
       <c r="G184" t="n">
-        <v>-2366427.290885532</v>
+        <v>12.26000000000002</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6890,28 +7093,29 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C185" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D185" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E185" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F185" t="n">
-        <v>731.7433</v>
+        <v>6499362.32649187</v>
       </c>
       <c r="G185" t="n">
-        <v>-2366427.290885532</v>
+        <v>12.26500000000001</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6925,28 +7129,29 @@
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C186" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D186" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E186" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F186" t="n">
-        <v>151494.8287</v>
+        <v>7143665.82350813</v>
       </c>
       <c r="G186" t="n">
-        <v>-2214932.462185532</v>
+        <v>12.27000000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6960,28 +7165,29 @@
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C187" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D187" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E187" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F187" t="n">
-        <v>64230.0626</v>
+        <v>7230804.9195</v>
       </c>
       <c r="G187" t="n">
-        <v>-2279162.524785532</v>
+        <v>12.28000000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6995,28 +7201,29 @@
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C188" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D188" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E188" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F188" t="n">
-        <v>10</v>
+        <v>1941904.36669187</v>
       </c>
       <c r="G188" t="n">
-        <v>-2279152.524785532</v>
+        <v>12.28500000000001</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7030,28 +7237,29 @@
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C189" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D189" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E189" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F189" t="n">
-        <v>26810</v>
+        <v>5918.993908130081</v>
       </c>
       <c r="G189" t="n">
-        <v>-2279152.524785532</v>
+        <v>12.29000000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7065,6 +7273,7 @@
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7074,19 +7283,19 @@
         <v>12.3</v>
       </c>
       <c r="C190" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D190" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E190" t="n">
         <v>12.3</v>
       </c>
       <c r="F190" t="n">
-        <v>165415.2032</v>
+        <v>109641.006</v>
       </c>
       <c r="G190" t="n">
-        <v>-2279152.524785532</v>
+        <v>12.29500000000001</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7100,28 +7309,29 @@
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C191" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D191" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E191" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F191" t="n">
-        <v>8821.055</v>
+        <v>693.471</v>
       </c>
       <c r="G191" t="n">
-        <v>-2287973.579785532</v>
+        <v>12.30500000000001</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7135,28 +7345,29 @@
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C192" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D192" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E192" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F192" t="n">
-        <v>100020</v>
+        <v>194214.8256</v>
       </c>
       <c r="G192" t="n">
-        <v>-2187953.579785532</v>
+        <v>12.31500000000001</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7170,28 +7381,29 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C193" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D193" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E193" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F193" t="n">
-        <v>10000</v>
+        <v>182</v>
       </c>
       <c r="G193" t="n">
-        <v>-2197953.579785532</v>
+        <v>12.32000000000001</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7205,6 +7417,7 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7223,10 +7436,10 @@
         <v>12.3</v>
       </c>
       <c r="F194" t="n">
-        <v>33</v>
+        <v>30269.0211</v>
       </c>
       <c r="G194" t="n">
-        <v>-2197920.579785532</v>
+        <v>12.32500000000001</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7240,28 +7453,29 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C195" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D195" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E195" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F195" t="n">
-        <v>78830.80809999999</v>
+        <v>81.96720000000001</v>
       </c>
       <c r="G195" t="n">
-        <v>-2276751.387885532</v>
+        <v>12.33000000000001</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7275,28 +7489,29 @@
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="C196" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="D196" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="E196" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="F196" t="n">
-        <v>25460.3616</v>
+        <v>59774.4478</v>
       </c>
       <c r="G196" t="n">
-        <v>-2302211.749485532</v>
+        <v>12.34500000000001</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7310,28 +7525,29 @@
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="C197" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D197" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E197" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="F197" t="n">
-        <v>192120.3065658537</v>
+        <v>10</v>
       </c>
       <c r="G197" t="n">
-        <v>-2110091.442919678</v>
+        <v>12.36500000000001</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7345,28 +7561,29 @@
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="C198" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D198" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E198" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F198" t="n">
-        <v>56</v>
+        <v>135156.6533</v>
       </c>
       <c r="G198" t="n">
-        <v>-2110091.442919678</v>
+        <v>12.38000000000001</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7380,28 +7597,29 @@
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C199" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D199" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E199" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F199" t="n">
-        <v>242775.9882</v>
+        <v>0.0001</v>
       </c>
       <c r="G199" t="n">
-        <v>-2352867.431119678</v>
+        <v>12.39000000000001</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7415,28 +7633,29 @@
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C200" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D200" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E200" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F200" t="n">
-        <v>477359.8012</v>
+        <v>5460.2235</v>
       </c>
       <c r="G200" t="n">
-        <v>-1875507.629919678</v>
+        <v>12.40500000000001</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7450,28 +7669,29 @@
       <c r="M200" t="n">
         <v>1</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C201" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D201" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="E201" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F201" t="n">
-        <v>56638.5261</v>
+        <v>260.1587</v>
       </c>
       <c r="G201" t="n">
-        <v>-1932146.156019678</v>
+        <v>12.42000000000001</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7485,28 +7705,29 @@
       <c r="M201" t="n">
         <v>1</v>
       </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C202" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D202" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E202" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F202" t="n">
-        <v>2693.8334</v>
+        <v>68.75</v>
       </c>
       <c r="G202" t="n">
-        <v>-1932146.156019678</v>
+        <v>12.42500000000001</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7520,28 +7741,29 @@
       <c r="M202" t="n">
         <v>1</v>
       </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C203" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D203" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="E203" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F203" t="n">
-        <v>107613.1997</v>
+        <v>10</v>
       </c>
       <c r="G203" t="n">
-        <v>-1932146.156019678</v>
+        <v>12.43500000000001</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7555,28 +7777,29 @@
       <c r="M203" t="n">
         <v>1</v>
       </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C204" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D204" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="E204" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F204" t="n">
-        <v>8712.3781</v>
+        <v>357247.4602206349</v>
       </c>
       <c r="G204" t="n">
-        <v>-1932146.156019678</v>
+        <v>12.44500000000001</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7590,28 +7813,29 @@
       <c r="M204" t="n">
         <v>1</v>
       </c>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C205" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D205" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="E205" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F205" t="n">
-        <v>88499.2179</v>
+        <v>3711.8571</v>
       </c>
       <c r="G205" t="n">
-        <v>-1932146.156019678</v>
+        <v>12.45500000000001</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7625,28 +7849,29 @@
       <c r="M205" t="n">
         <v>1</v>
       </c>
+      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="C206" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="D206" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="E206" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="F206" t="n">
-        <v>41229.9831</v>
+        <v>14610</v>
       </c>
       <c r="G206" t="n">
-        <v>-1932146.156019678</v>
+        <v>12.46000000000001</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7660,28 +7885,29 @@
       <c r="M206" t="n">
         <v>1</v>
       </c>
+      <c r="N206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C207" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D207" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E207" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F207" t="n">
-        <v>81300.81300813008</v>
+        <v>31226.9555</v>
       </c>
       <c r="G207" t="n">
-        <v>-1850845.343011548</v>
+        <v>12.46500000000001</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7695,28 +7921,29 @@
       <c r="M207" t="n">
         <v>1</v>
       </c>
+      <c r="N207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="C208" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D208" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E208" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F208" t="n">
-        <v>10227</v>
+        <v>47189.5012</v>
       </c>
       <c r="G208" t="n">
-        <v>-1861072.343011548</v>
+        <v>12.47500000000001</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7730,28 +7957,29 @@
       <c r="M208" t="n">
         <v>1</v>
       </c>
+      <c r="N208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C209" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D209" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="E209" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F209" t="n">
-        <v>60538.0422</v>
+        <v>132371.5322</v>
       </c>
       <c r="G209" t="n">
-        <v>-1861072.343011548</v>
+        <v>12.48500000000001</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7765,28 +7993,29 @@
       <c r="M209" t="n">
         <v>1</v>
       </c>
+      <c r="N209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="C210" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D210" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E210" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F210" t="n">
-        <v>19</v>
+        <v>294654.2489</v>
       </c>
       <c r="G210" t="n">
-        <v>-1861053.343011548</v>
+        <v>12.50000000000001</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7800,28 +8029,29 @@
       <c r="M210" t="n">
         <v>1</v>
       </c>
+      <c r="N210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C211" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D211" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E211" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F211" t="n">
-        <v>31058.637</v>
+        <v>15270</v>
       </c>
       <c r="G211" t="n">
-        <v>-1861053.343011548</v>
+        <v>12.50500000000001</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7835,28 +8065,29 @@
       <c r="M211" t="n">
         <v>1</v>
       </c>
+      <c r="N211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C212" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D212" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="E212" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F212" t="n">
-        <v>23451.9231</v>
+        <v>108838.0585793651</v>
       </c>
       <c r="G212" t="n">
-        <v>-1884505.266111548</v>
+        <v>12.51500000000001</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7870,28 +8101,29 @@
       <c r="M212" t="n">
         <v>1</v>
       </c>
+      <c r="N212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C213" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D213" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="E213" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F213" t="n">
-        <v>62417.6937</v>
+        <v>42719.6488</v>
       </c>
       <c r="G213" t="n">
-        <v>-1884505.266111548</v>
+        <v>12.53000000000001</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7905,28 +8137,29 @@
       <c r="M213" t="n">
         <v>1</v>
       </c>
+      <c r="N213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="C214" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D214" t="n">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="E214" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F214" t="n">
-        <v>126195.0036</v>
+        <v>379637.3177</v>
       </c>
       <c r="G214" t="n">
-        <v>-1884505.266111548</v>
+        <v>12.55000000000001</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7940,28 +8173,29 @@
       <c r="M214" t="n">
         <v>1</v>
       </c>
+      <c r="N214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="C215" t="n">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="D215" t="n">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="E215" t="n">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="F215" t="n">
-        <v>94646.2527</v>
+        <v>53211.3385</v>
       </c>
       <c r="G215" t="n">
-        <v>-1884505.266111548</v>
+        <v>12.56500000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7975,28 +8209,29 @@
       <c r="M215" t="n">
         <v>1</v>
       </c>
+      <c r="N215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="C216" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="D216" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="E216" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="F216" t="n">
-        <v>57172.9396</v>
+        <v>747813.6716999999</v>
       </c>
       <c r="G216" t="n">
-        <v>-1884505.266111548</v>
+        <v>12.58000000000001</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8010,28 +8245,29 @@
       <c r="M216" t="n">
         <v>1</v>
       </c>
+      <c r="N216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="C217" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="D217" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="E217" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="F217" t="n">
-        <v>8069.6347</v>
+        <v>15969.0625</v>
       </c>
       <c r="G217" t="n">
-        <v>-1876435.631411548</v>
+        <v>12.59000000000001</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8045,28 +8281,29 @@
       <c r="M217" t="n">
         <v>1</v>
       </c>
+      <c r="N217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="C218" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="D218" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="E218" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="F218" t="n">
-        <v>2870</v>
+        <v>107301.6489</v>
       </c>
       <c r="G218" t="n">
-        <v>-1879305.631411548</v>
+        <v>12.60000000000001</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8080,28 +8317,29 @@
       <c r="M218" t="n">
         <v>1</v>
       </c>
+      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="C219" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="D219" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="E219" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="F219" t="n">
-        <v>1068</v>
+        <v>310045.5925</v>
       </c>
       <c r="G219" t="n">
-        <v>-1879305.631411548</v>
+        <v>12.62000000000001</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8115,28 +8353,29 @@
       <c r="M219" t="n">
         <v>1</v>
       </c>
+      <c r="N219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="C220" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="D220" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="E220" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="F220" t="n">
-        <v>101838.5621</v>
+        <v>851</v>
       </c>
       <c r="G220" t="n">
-        <v>-1777467.069311548</v>
+        <v>12.63500000000001</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8150,28 +8389,29 @@
       <c r="M220" t="n">
         <v>1</v>
       </c>
+      <c r="N220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="C221" t="n">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="D221" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="E221" t="n">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="F221" t="n">
-        <v>11</v>
+        <v>10000.6648</v>
       </c>
       <c r="G221" t="n">
-        <v>-1777478.069311548</v>
+        <v>12.64500000000001</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8185,28 +8425,29 @@
       <c r="M221" t="n">
         <v>1</v>
       </c>
+      <c r="N221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="C222" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="D222" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="E222" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="F222" t="n">
-        <v>48425.9398</v>
+        <v>10</v>
       </c>
       <c r="G222" t="n">
-        <v>-1777478.069311548</v>
+        <v>12.665</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8220,28 +8461,29 @@
       <c r="M222" t="n">
         <v>1</v>
       </c>
+      <c r="N222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="C223" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="D223" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="E223" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="F223" t="n">
-        <v>107674.1192</v>
+        <v>4334.8437</v>
       </c>
       <c r="G223" t="n">
-        <v>-1669803.950111548</v>
+        <v>12.675</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8255,28 +8497,29 @@
       <c r="M223" t="n">
         <v>1</v>
       </c>
+      <c r="N223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="C224" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="D224" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="E224" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="F224" t="n">
-        <v>10</v>
+        <v>15134.5106</v>
       </c>
       <c r="G224" t="n">
-        <v>-1669793.950111548</v>
+        <v>12.68000000000001</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8290,28 +8533,29 @@
       <c r="M224" t="n">
         <v>1</v>
       </c>
+      <c r="N224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="C225" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="D225" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="E225" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="F225" t="n">
-        <v>309714.3548</v>
+        <v>50</v>
       </c>
       <c r="G225" t="n">
-        <v>-1669793.950111548</v>
+        <v>12.68500000000001</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8325,28 +8569,29 @@
       <c r="M225" t="n">
         <v>1</v>
       </c>
+      <c r="N225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="C226" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="D226" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="E226" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="F226" t="n">
-        <v>27286.0563</v>
+        <v>15000</v>
       </c>
       <c r="G226" t="n">
-        <v>-1669793.950111548</v>
+        <v>12.69500000000001</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8360,28 +8605,29 @@
       <c r="M226" t="n">
         <v>1</v>
       </c>
+      <c r="N226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="C227" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="D227" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="E227" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="F227" t="n">
-        <v>6499362.32649187</v>
+        <v>5170.8737</v>
       </c>
       <c r="G227" t="n">
-        <v>-1669793.950111548</v>
+        <v>12.70500000000001</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8395,28 +8641,29 @@
       <c r="M227" t="n">
         <v>1</v>
       </c>
+      <c r="N227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="C228" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="D228" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="E228" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="F228" t="n">
-        <v>7143665.82350813</v>
+        <v>38171.7184</v>
       </c>
       <c r="G228" t="n">
-        <v>-1669793.950111548</v>
+        <v>12.71500000000001</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8430,28 +8677,29 @@
       <c r="M228" t="n">
         <v>1</v>
       </c>
+      <c r="N228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="C229" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="D229" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="E229" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="F229" t="n">
-        <v>7230804.9195</v>
+        <v>79256.0724</v>
       </c>
       <c r="G229" t="n">
-        <v>-1669793.950111548</v>
+        <v>12.72500000000001</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8465,34 +8713,35 @@
       <c r="M229" t="n">
         <v>1</v>
       </c>
+      <c r="N229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="C230" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="D230" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="E230" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="F230" t="n">
-        <v>1941904.36669187</v>
+        <v>102303.9534</v>
       </c>
       <c r="G230" t="n">
-        <v>-1669793.950111548</v>
+        <v>12.73500000000001</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
@@ -8500,28 +8749,29 @@
       <c r="M230" t="n">
         <v>1</v>
       </c>
+      <c r="N230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="C231" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="D231" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="E231" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="F231" t="n">
-        <v>5918.993908130081</v>
+        <v>105178.4436</v>
       </c>
       <c r="G231" t="n">
-        <v>-1669793.950111548</v>
+        <v>12.75000000000001</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8535,28 +8785,29 @@
       <c r="M231" t="n">
         <v>1</v>
       </c>
+      <c r="N231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="C232" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="D232" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="E232" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="F232" t="n">
-        <v>109641.006</v>
+        <v>104724.6402</v>
       </c>
       <c r="G232" t="n">
-        <v>-1669793.950111548</v>
+        <v>12.76000000000001</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8570,28 +8821,29 @@
       <c r="M232" t="n">
         <v>1</v>
       </c>
+      <c r="N232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="C233" t="n">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="D233" t="n">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="E233" t="n">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="F233" t="n">
-        <v>693.471</v>
+        <v>10</v>
       </c>
       <c r="G233" t="n">
-        <v>-1669793.950111548</v>
+        <v>12.77500000000001</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8605,34 +8857,35 @@
       <c r="M233" t="n">
         <v>1</v>
       </c>
+      <c r="N233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="C234" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="D234" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="E234" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="F234" t="n">
-        <v>194214.8256</v>
+        <v>43979.7197</v>
       </c>
       <c r="G234" t="n">
-        <v>-1669793.950111548</v>
+        <v>12.78000000000001</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
@@ -8640,34 +8893,35 @@
       <c r="M234" t="n">
         <v>1</v>
       </c>
+      <c r="N234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="C235" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="D235" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="E235" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="F235" t="n">
-        <v>182</v>
+        <v>37878.9843</v>
       </c>
       <c r="G235" t="n">
-        <v>-1669975.950111548</v>
+        <v>12.78000000000001</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
@@ -8675,34 +8929,35 @@
       <c r="M235" t="n">
         <v>1</v>
       </c>
+      <c r="N235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="C236" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="D236" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="E236" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="F236" t="n">
-        <v>30269.0211</v>
+        <v>32449.3858</v>
       </c>
       <c r="G236" t="n">
-        <v>-1669975.950111548</v>
+        <v>12.77500000000001</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
@@ -8710,34 +8965,35 @@
       <c r="M236" t="n">
         <v>1</v>
       </c>
+      <c r="N236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="C237" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D237" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="E237" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F237" t="n">
-        <v>81.96720000000001</v>
+        <v>45000</v>
       </c>
       <c r="G237" t="n">
-        <v>-1669893.982911548</v>
+        <v>12.77</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
@@ -8745,34 +9001,35 @@
       <c r="M237" t="n">
         <v>1</v>
       </c>
+      <c r="N237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C238" t="n">
         <v>12.5</v>
       </c>
       <c r="D238" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E238" t="n">
         <v>12.5</v>
       </c>
       <c r="F238" t="n">
-        <v>59774.4478</v>
+        <v>25172.0812</v>
       </c>
       <c r="G238" t="n">
-        <v>-1610119.535111548</v>
+        <v>12.76000000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
@@ -8780,6 +9037,7 @@
       <c r="M238" t="n">
         <v>1</v>
       </c>
+      <c r="N238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8798,10 +9056,10 @@
         <v>12.6</v>
       </c>
       <c r="F239" t="n">
-        <v>10</v>
+        <v>23790</v>
       </c>
       <c r="G239" t="n">
-        <v>-1610109.535111548</v>
+        <v>12.75000000000001</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8815,34 +9073,35 @@
       <c r="M239" t="n">
         <v>1</v>
       </c>
+      <c r="N239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C240" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D240" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E240" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F240" t="n">
-        <v>135156.6533</v>
+        <v>29991.375</v>
       </c>
       <c r="G240" t="n">
-        <v>-1745266.188411548</v>
+        <v>12.735</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
@@ -8850,1476 +9109,7 @@
       <c r="M240" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C241" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D241" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E241" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F241" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-1745266.188411548</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C242" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D242" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E242" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F242" t="n">
-        <v>5460.2235</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-1739805.964911548</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C243" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D243" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E243" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F243" t="n">
-        <v>260.1587</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-1740066.123611548</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C244" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D244" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E244" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F244" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-1740066.123611548</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C245" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D245" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E245" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F245" t="n">
-        <v>10</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-1740056.123611548</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C246" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D246" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E246" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F246" t="n">
-        <v>357247.4602206349</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-1740056.123611548</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C247" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D247" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E247" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F247" t="n">
-        <v>3711.8571</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-1740056.123611548</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C248" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D248" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E248" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F248" t="n">
-        <v>14610</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-1754666.123611548</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C249" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D249" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E249" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F249" t="n">
-        <v>31226.9555</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-1723439.168111548</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C250" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D250" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E250" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F250" t="n">
-        <v>47189.5012</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-1723439.168111548</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C251" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D251" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E251" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F251" t="n">
-        <v>132371.5322</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-1723439.168111548</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C252" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D252" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E252" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F252" t="n">
-        <v>294654.2489</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-2018093.417011548</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C253" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D253" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E253" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F253" t="n">
-        <v>15270</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-2018093.417011548</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C254" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D254" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E254" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F254" t="n">
-        <v>108838.0585793651</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-1909255.358432183</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C255" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D255" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E255" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F255" t="n">
-        <v>42719.6488</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-1909255.358432183</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C256" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D256" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E256" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F256" t="n">
-        <v>379637.3177</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-1909255.358432183</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C257" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D257" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E257" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F257" t="n">
-        <v>53211.3385</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-1856044.019932183</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C258" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D258" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E258" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F258" t="n">
-        <v>747813.6716999999</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C259" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D259" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E259" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F259" t="n">
-        <v>15969.0625</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C260" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D260" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E260" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F260" t="n">
-        <v>107301.6489</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C261" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D261" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E261" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F261" t="n">
-        <v>310045.5925</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C262" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D262" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E262" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F262" t="n">
-        <v>851</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C263" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D263" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E263" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F263" t="n">
-        <v>10000.6648</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-1118231.013032183</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C264" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D264" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E264" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F264" t="n">
-        <v>10</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-1118221.013032183</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C265" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D265" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E265" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F265" t="n">
-        <v>4334.8437</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-1118221.013032183</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C266" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D266" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E266" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F266" t="n">
-        <v>15134.5106</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-1133355.523632183</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C267" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D267" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E267" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F267" t="n">
-        <v>50</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-1133355.523632183</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C268" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D268" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E268" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F268" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-1133355.523632183</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C269" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D269" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E269" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F269" t="n">
-        <v>5170.8737</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-1133355.523632183</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C270" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D270" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E270" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F270" t="n">
-        <v>38171.7184</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-1095183.805232183</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C271" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D271" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E271" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F271" t="n">
-        <v>79256.0724</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-1095183.805232183</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C272" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D272" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E272" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F272" t="n">
-        <v>102303.9534</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-1095183.805232183</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C273" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D273" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E273" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F273" t="n">
-        <v>105178.4436</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-1095183.805232183</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C274" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D274" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E274" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F274" t="n">
-        <v>104724.6402</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-1095183.805232183</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C275" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D275" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E275" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F275" t="n">
-        <v>10</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-1095173.805232183</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C276" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D276" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E276" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F276" t="n">
-        <v>43979.7197</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-1139153.524932183</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C277" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D277" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E277" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F277" t="n">
-        <v>37878.9843</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-1139153.524932183</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C278" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D278" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E278" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F278" t="n">
-        <v>32449.3858</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-1171602.910732183</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C279" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D279" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E279" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F279" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-1216602.910732183</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C280" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D280" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E280" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F280" t="n">
-        <v>25172.0812</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-1241774.991932183</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C281" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D281" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E281" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F281" t="n">
-        <v>23790</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-1217984.991932183</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C282" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D282" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E282" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F282" t="n">
-        <v>29991.375</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-1247976.366932183</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
+      <c r="N240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-29 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N311"/>
+  <dimension ref="A1:M311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-14873.38597540982</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-14884.38597540982</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-14884.38597540982</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-164613.7407754098</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-164434.8789867919</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-164434.8789867919</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-173935.710686792</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-159885.710686792</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-159885.710686792</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-2176.876086791948</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-38777.55358679195</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-7550.192237611618</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>297399.7042623883</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>297399.7042623883</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,22 +5269,15 @@
         <v>-2631927.257339251</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>12</v>
-      </c>
-      <c r="K148" t="n">
-        <v>12</v>
-      </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5752,26 +5302,15 @@
         <v>-2631927.257339251</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K149" t="n">
-        <v>12</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5796,26 +5335,15 @@
         <v>-2631927.257339251</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K150" t="n">
-        <v>12</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5840,26 +5368,15 @@
         <v>-2523127.346439251</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K151" t="n">
-        <v>12</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5886,22 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>12</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5926,26 +5434,15 @@
         <v>-2525767.346439251</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K153" t="n">
-        <v>12</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5970,26 +5467,15 @@
         <v>-2658734.635139251</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K154" t="n">
-        <v>12</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6014,26 +5500,19 @@
         <v>-2658734.635139251</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J155" t="n">
         <v>12</v>
       </c>
-      <c r="K155" t="n">
-        <v>12</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6058,26 +5537,23 @@
         <v>-2630625.461585531</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J156" t="n">
         <v>12</v>
       </c>
-      <c r="K156" t="n">
-        <v>12</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6102,26 +5578,23 @@
         <v>-2630625.461585531</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J157" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K157" t="n">
         <v>12</v>
       </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6146,26 +5619,15 @@
         <v>-2630625.461585531</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K158" t="n">
-        <v>12</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6190,26 +5652,19 @@
         <v>-2629768.255085532</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J159" t="n">
         <v>12.1</v>
       </c>
-      <c r="K159" t="n">
-        <v>12</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6234,26 +5689,21 @@
         <v>-2680948.678785532</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K160" t="n">
-        <v>12</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6278,26 +5728,21 @@
         <v>-2680948.678785532</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>12.1</v>
       </c>
-      <c r="K161" t="n">
-        <v>12</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6322,26 +5767,15 @@
         <v>-2680948.678785532</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K162" t="n">
-        <v>12</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6366,26 +5800,21 @@
         <v>-2632720.166685532</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K163" t="n">
-        <v>12</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6410,26 +5839,19 @@
         <v>-2632720.166685532</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K164" t="n">
-        <v>12</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6454,26 +5876,21 @@
         <v>-2632720.166685532</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K165" t="n">
-        <v>12</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6498,26 +5915,19 @@
         <v>-2632720.166685532</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K166" t="n">
-        <v>12</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6542,26 +5952,21 @@
         <v>-2638720.166685532</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K167" t="n">
-        <v>12</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6588,22 +5993,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>12</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6630,22 +6030,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>12</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6672,22 +6067,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>12</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6714,22 +6104,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>12</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6756,22 +6141,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>12</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6796,26 +6176,19 @@
         <v>-2632370.166685532</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K173" t="n">
-        <v>12</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6840,26 +6213,19 @@
         <v>-2632370.166685532</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K174" t="n">
-        <v>12</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6884,26 +6250,19 @@
         <v>-2632370.166685532</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K175" t="n">
-        <v>12</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6928,26 +6287,19 @@
         <v>-2605630.410685532</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K176" t="n">
-        <v>12</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6974,22 +6326,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>12</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7014,26 +6361,21 @@
         <v>-2537978.390285532</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K178" t="n">
-        <v>12</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7058,26 +6400,21 @@
         <v>-2537978.390285532</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K179" t="n">
-        <v>12</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7104,22 +6441,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>12</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7144,26 +6476,21 @@
         <v>-2337744.934285532</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K181" t="n">
-        <v>12</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7188,24 +6515,21 @@
         <v>-2345773.934285532</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>12</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7230,26 +6554,21 @@
         <v>-2345773.934285532</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K183" t="n">
-        <v>12</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7274,24 +6593,21 @@
         <v>-2345773.934285532</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>12</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7316,24 +6632,21 @@
         <v>-2345773.934285532</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>12</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7358,24 +6671,21 @@
         <v>-2345773.934285532</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>12</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7400,26 +6710,21 @@
         <v>-2441558.934285532</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K187" t="n">
-        <v>12</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7444,26 +6749,21 @@
         <v>-2432846.934285532</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
         <v>12</v>
       </c>
-      <c r="K188" t="n">
-        <v>12</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7488,24 +6788,21 @@
         <v>-2432846.934285532</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>12</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7530,24 +6827,21 @@
         <v>-2395484.311385532</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>12</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7574,22 +6868,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>12</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7614,26 +6903,19 @@
         <v>-2395484.311385532</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K192" t="n">
-        <v>12</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7660,22 +6942,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>12</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7700,26 +6977,19 @@
         <v>-2475277.573985532</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K194" t="n">
-        <v>12</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7744,26 +7014,19 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K195" t="n">
-        <v>12</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7788,26 +7051,19 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K196" t="n">
-        <v>12</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7832,26 +7088,19 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K197" t="n">
-        <v>12</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7876,26 +7125,21 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K198" t="n">
-        <v>12</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7920,26 +7164,21 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K199" t="n">
-        <v>12</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7964,26 +7203,21 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K200" t="n">
-        <v>12</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8010,24 +7244,17 @@
       <c r="H201" t="n">
         <v>1</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K201" t="n">
-        <v>12</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8052,26 +7279,19 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K202" t="n">
-        <v>12</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8096,26 +7316,21 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K203" t="n">
-        <v>12</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8140,26 +7355,19 @@
         <v>-2366176.983885532</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K204" t="n">
-        <v>12</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8186,24 +7394,17 @@
       <c r="H205" t="n">
         <v>1</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K205" t="n">
-        <v>12</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8228,26 +7429,19 @@
         <v>-2366440.290885532</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K206" t="n">
-        <v>12</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8272,26 +7466,19 @@
         <v>-2366440.290885532</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K207" t="n">
-        <v>12</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8316,26 +7503,19 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K208" t="n">
-        <v>12</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8362,24 +7542,17 @@
       <c r="H209" t="n">
         <v>1</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K209" t="n">
-        <v>12</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8406,22 +7579,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>12</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8446,26 +7614,19 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K211" t="n">
-        <v>12</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8492,22 +7653,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>12</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8532,24 +7688,19 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>12</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8574,26 +7725,19 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K214" t="n">
-        <v>12</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8618,26 +7762,21 @@
         <v>-2214932.462185532</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K215" t="n">
-        <v>12</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8664,22 +7803,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>12</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8704,24 +7838,21 @@
         <v>-2279152.524785532</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>12</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8748,22 +7879,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>12</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8790,22 +7916,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>12</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8832,22 +7953,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>12</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8874,22 +7990,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>12</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8916,22 +8027,17 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>12</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8958,22 +8064,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>12</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9000,22 +8101,17 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>12</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9042,22 +8138,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>12</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9082,24 +8173,21 @@
         <v>-2110091.442919678</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>12</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9124,24 +8212,21 @@
         <v>-2110091.442919678</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>12</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9168,22 +8253,17 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>12</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9210,22 +8290,17 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>12</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9252,22 +8327,17 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>12</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9294,22 +8364,17 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>12</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9336,22 +8401,17 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>12</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9376,24 +8436,19 @@
         <v>-1932146.156019678</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>12</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9420,22 +8475,17 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>12</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9460,24 +8510,21 @@
         <v>-1932146.156019678</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>12</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9502,24 +8549,21 @@
         <v>-1850845.343011548</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>12</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9544,24 +8588,19 @@
         <v>-1861072.343011548</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>12</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9588,22 +8627,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>12</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9630,22 +8664,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>12</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9672,22 +8701,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>12</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9712,24 +8736,19 @@
         <v>-1884505.266111548</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>12</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9754,24 +8773,19 @@
         <v>-1884505.266111548</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>12</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9796,24 +8810,19 @@
         <v>-1884505.266111548</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>12</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9838,24 +8847,19 @@
         <v>-1884505.266111548</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>12</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9880,24 +8884,19 @@
         <v>-1884505.266111548</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>12</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9922,24 +8921,19 @@
         <v>-1876435.631411548</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>12</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9964,24 +8958,19 @@
         <v>-1879305.631411548</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>12</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10008,22 +8997,17 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>12</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10048,24 +9032,19 @@
         <v>-1777467.069311548</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>12</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10092,22 +9071,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>12</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10134,22 +9108,17 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>12</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10176,22 +9145,17 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>12</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10218,22 +9182,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>12</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10260,22 +9219,17 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>12</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10302,22 +9256,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>12</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10342,24 +9291,19 @@
         <v>-1669793.950111548</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>12</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10384,24 +9328,19 @@
         <v>-1669793.950111548</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>12</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10428,22 +9367,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>12</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10468,24 +9402,19 @@
         <v>-1669793.950111548</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>12</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10512,22 +9441,17 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>12</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10554,22 +9478,17 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>12</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10596,22 +9515,17 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>12</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10638,22 +9552,17 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>12</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10680,22 +9589,17 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>12</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10722,22 +9626,17 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>12</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10764,22 +9663,17 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>12</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10806,22 +9700,17 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>12</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10848,22 +9737,17 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>12</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10890,22 +9774,17 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>12</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10932,22 +9811,17 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>12</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10974,22 +9848,17 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>12</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11016,22 +9885,17 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>12</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11058,22 +9922,17 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>12</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11100,22 +9959,17 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>12</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11142,22 +9996,17 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>12</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11184,22 +10033,17 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>12</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11226,22 +10070,17 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>12</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11268,22 +10107,17 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>12</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11310,22 +10144,17 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>12</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11352,22 +10181,17 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>12</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11394,22 +10218,17 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>12</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11436,22 +10255,17 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>12</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11478,22 +10292,17 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>12</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11520,22 +10329,17 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>12</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11562,22 +10366,17 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>12</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11604,22 +10403,17 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>12</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11646,22 +10440,17 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>12</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11686,26 +10475,17 @@
         <v>-1108230.348232183</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>12</v>
-      </c>
-      <c r="L288" t="inlineStr">
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1.061666666666667</v>
-      </c>
-      <c r="N288" t="n">
-        <v>1.042016806722689</v>
-      </c>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11730,18 +10510,15 @@
         <v>-1108230.348232183</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11766,18 +10543,15 @@
         <v>-1108230.348232183</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11802,18 +10576,15 @@
         <v>-1108230.348232183</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11838,18 +10609,15 @@
         <v>-1118231.013032183</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11874,18 +10642,15 @@
         <v>-1118221.013032183</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11912,16 +10677,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>1</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11948,16 +10710,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>1</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11984,16 +10743,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>1</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -12020,16 +10776,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>1</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -12056,16 +10809,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>1</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -12092,16 +10842,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>1</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12126,18 +10873,15 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12164,16 +10908,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>1</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12198,18 +10939,15 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12236,16 +10974,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>1</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12272,16 +11007,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12308,16 +11040,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>1</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12342,18 +11071,15 @@
         <v>-1139153.524932183</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12380,16 +11106,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>1</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12416,16 +11139,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>1</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12452,16 +11172,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>1</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12488,16 +11205,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12524,18 +11238,15 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>1</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-29 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>309561.1240245902</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>309561.1240245902</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>309561.1240245902</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-133709.6837754098</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-110209.0169754098</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-104540.0169754098</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-104551.0169754098</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-104551.0169754098</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-72937.11457540983</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-72937.11457540983</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-72937.11457540983</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-72905.11457540983</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-72951.11457540983</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-72951.11457540983</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-72951.11457540983</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-72951.11457540983</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-72951.11457540983</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-63138.11457540983</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-63138.11457540983</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-63160.11457540983</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-14873.38597540982</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-14873.38597540982</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-14873.38597540982</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-14884.38597540982</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-14884.38597540982</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-164613.7407754098</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-164434.8789867919</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-164434.8789867919</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-173935.710686792</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-159885.710686792</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-159885.710686792</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2176.876086791948</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-38777.55358679195</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-38405.01268679195</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-38172.11028679195</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-38194.11028679195</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-10867.69583761162</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-13812.66083761162</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-10182.19223761162</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-10193.19223761162</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-10203.19223761162</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-7550.192237611618</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-7550.192237611618</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>297399.7042623883</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>297399.7042623883</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -5335,10 +5335,14 @@
         <v>-2631927.257339251</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5368,11 +5372,19 @@
         <v>-2523127.346439251</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5413,19 @@
         <v>-2525767.346439251</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5454,19 @@
         <v>-2525767.346439251</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5495,19 @@
         <v>-2658734.635139251</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,15 +5536,19 @@
         <v>-2658734.635139251</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>12</v>
       </c>
       <c r="J155" t="n">
-        <v>12</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,17 +5577,17 @@
         <v>-2630625.461585531</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>12</v>
       </c>
       <c r="J156" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5578,17 +5618,17 @@
         <v>-2630625.461585531</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>12.1</v>
       </c>
       <c r="J157" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5619,11 +5659,19 @@
         <v>-2630625.461585531</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5652,15 +5700,17 @@
         <v>-2629768.255085532</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
         <v>12.1</v>
       </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5697,7 +5747,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -5728,15 +5778,17 @@
         <v>-2680948.678785532</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J161" t="n">
         <v>12.1</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -5767,11 +5819,19 @@
         <v>-2680948.678785532</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5800,15 +5860,17 @@
         <v>-2632720.166685532</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>12.1</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -5839,10 +5901,14 @@
         <v>-2632720.166685532</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J164" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5876,12 +5942,14 @@
         <v>-2632720.166685532</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>12.2</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,10 +5983,14 @@
         <v>-2632720.166685532</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5952,12 +6024,14 @@
         <v>-2638720.166685532</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>12.2</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5994,7 +6068,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6028,10 +6104,14 @@
         <v>-2632370.166685532</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6065,10 +6145,14 @@
         <v>-2632370.166685532</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6102,10 +6186,14 @@
         <v>-2632370.166685532</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6139,10 +6227,14 @@
         <v>-2632370.166685532</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6176,10 +6268,14 @@
         <v>-2632370.166685532</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6213,10 +6309,14 @@
         <v>-2632370.166685532</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6250,10 +6350,14 @@
         <v>-2632370.166685532</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6287,10 +6391,14 @@
         <v>-2605630.410685532</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6324,10 +6432,14 @@
         <v>-2609630.410685532</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J177" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6361,12 +6473,14 @@
         <v>-2537978.390285532</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>12.2</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6400,12 +6514,14 @@
         <v>-2537978.390285532</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>12.3</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6442,7 +6558,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6476,12 +6594,14 @@
         <v>-2337744.934285532</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>12.2</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6515,12 +6635,14 @@
         <v>-2345773.934285532</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>12.3</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6554,12 +6676,14 @@
         <v>-2345773.934285532</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>12.2</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6593,12 +6717,14 @@
         <v>-2345773.934285532</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>12.2</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6632,12 +6758,14 @@
         <v>-2345773.934285532</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>12.2</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6671,12 +6799,14 @@
         <v>-2345773.934285532</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>12.2</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6710,12 +6840,14 @@
         <v>-2441558.934285532</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>12.2</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6749,12 +6881,14 @@
         <v>-2432846.934285532</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>12</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6788,12 +6922,14 @@
         <v>-2432846.934285532</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>12.1</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6827,12 +6963,14 @@
         <v>-2395484.311385532</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>12.1</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6866,10 +7004,14 @@
         <v>-2395484.311385532</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J191" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6903,10 +7045,14 @@
         <v>-2395484.311385532</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J192" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6940,10 +7086,14 @@
         <v>-2496962.151285532</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J193" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6977,10 +7127,14 @@
         <v>-2475277.573985532</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7014,10 +7168,14 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J195" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7051,10 +7209,14 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7088,10 +7250,14 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7125,12 +7291,14 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>12.1</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7164,12 +7332,14 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>12.1</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7203,12 +7373,14 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>12.1</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7244,8 +7416,12 @@
       <c r="H201" t="n">
         <v>1</v>
       </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7279,10 +7455,14 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7316,12 +7496,14 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>12.1</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7355,10 +7537,14 @@
         <v>-2366176.983885532</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7394,8 +7580,12 @@
       <c r="H205" t="n">
         <v>1</v>
       </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7429,10 +7619,14 @@
         <v>-2366440.290885532</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7466,10 +7660,14 @@
         <v>-2366440.290885532</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7503,10 +7701,14 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7542,8 +7744,12 @@
       <c r="H209" t="n">
         <v>1</v>
       </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J209" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7577,10 +7783,14 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J210" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7614,10 +7824,14 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J211" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7651,10 +7865,14 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J212" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7690,8 +7908,12 @@
       <c r="H213" t="n">
         <v>1</v>
       </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J213" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7725,10 +7947,14 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7762,12 +7988,14 @@
         <v>-2214932.462185532</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>12.2</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7801,10 +8029,14 @@
         <v>-2279162.524785532</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J216" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7838,12 +8070,12 @@
         <v>-2279152.524785532</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7880,7 +8112,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7917,7 +8151,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7954,7 +8190,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7988,10 +8226,14 @@
         <v>-2187953.579785532</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8028,7 +8270,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8062,10 +8306,14 @@
         <v>-2197920.579785532</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J223" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8099,10 +8347,14 @@
         <v>-2276751.387885532</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J224" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8136,10 +8388,14 @@
         <v>-2302211.749485532</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8173,12 +8429,14 @@
         <v>-2110091.442919678</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>12.1</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8212,12 +8470,12 @@
         <v>-2110091.442919678</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8254,7 +8512,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8291,7 +8551,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8328,7 +8590,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8365,7 +8629,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8402,7 +8668,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8438,8 +8706,12 @@
       <c r="H233" t="n">
         <v>1</v>
       </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J233" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8473,10 +8745,14 @@
         <v>-1932146.156019678</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J234" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8510,12 +8786,14 @@
         <v>-1932146.156019678</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>12.2</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8549,12 +8827,14 @@
         <v>-1850845.343011548</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>12.2</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8588,10 +8868,12 @@
         <v>-1861072.343011548</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8628,7 +8910,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8665,7 +8949,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8702,7 +8988,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8736,10 +9024,12 @@
         <v>-1884505.266111548</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8773,10 +9063,12 @@
         <v>-1884505.266111548</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8810,10 +9102,12 @@
         <v>-1884505.266111548</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8847,10 +9141,12 @@
         <v>-1884505.266111548</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8884,10 +9180,12 @@
         <v>-1884505.266111548</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8921,10 +9219,12 @@
         <v>-1876435.631411548</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8958,10 +9258,12 @@
         <v>-1879305.631411548</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8998,7 +9300,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9034,8 +9338,12 @@
       <c r="H249" t="n">
         <v>1</v>
       </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J249" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9072,7 +9380,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9109,7 +9419,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9146,7 +9458,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9183,7 +9497,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9220,7 +9536,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9257,7 +9575,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9291,10 +9611,12 @@
         <v>-1669793.950111548</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9328,10 +9650,12 @@
         <v>-1669793.950111548</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9368,7 +9692,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9402,10 +9728,12 @@
         <v>-1669793.950111548</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9442,7 +9770,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9479,7 +9809,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9516,7 +9848,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9553,7 +9887,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9590,7 +9926,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9627,7 +9965,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9664,7 +10004,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9701,7 +10043,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9738,7 +10082,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9775,7 +10121,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9812,7 +10160,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9849,7 +10199,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9886,7 +10238,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9923,7 +10277,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9960,7 +10316,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9997,7 +10355,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10034,7 +10394,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10071,7 +10433,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10108,7 +10472,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10145,7 +10511,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10182,7 +10550,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10219,7 +10589,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10256,7 +10628,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10293,7 +10667,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10330,7 +10706,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10367,7 +10745,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10404,7 +10784,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10441,7 +10823,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10475,16 +10859,20 @@
         <v>-1108230.348232183</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L288" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
       <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
@@ -10510,11 +10898,17 @@
         <v>-1108230.348232183</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10543,11 +10937,17 @@
         <v>-1108230.348232183</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10576,11 +10976,17 @@
         <v>-1108230.348232183</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10609,11 +11015,17 @@
         <v>-1118231.013032183</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10642,11 +11054,17 @@
         <v>-1118221.013032183</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10678,8 +11096,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10711,8 +11135,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10744,8 +11174,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10777,8 +11213,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10810,8 +11252,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10843,8 +11291,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10873,11 +11327,17 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10909,8 +11369,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10939,11 +11405,17 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10975,8 +11447,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11008,8 +11486,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11038,15 +11522,23 @@
         <v>-1139153.524932183</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+        <v>1.052851239669422</v>
+      </c>
+      <c r="M305" t="n">
+        <v>1.042016806722689</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11071,7 +11563,7 @@
         <v>-1139153.524932183</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11104,7 +11596,7 @@
         <v>-1171602.910732183</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11137,7 +11629,7 @@
         <v>-1216602.910732183</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11170,7 +11662,7 @@
         <v>-1241774.991932183</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11203,7 +11695,7 @@
         <v>-1217984.991932183</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11236,7 +11728,7 @@
         <v>-1247976.366932183</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11247,6 +11739,6 @@
       <c r="M311" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-29 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>309561.1240245902</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>309561.1240245902</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>309561.1240245902</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-133709.6837754098</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-110209.0169754098</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-104540.0169754098</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-104551.0169754098</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-104551.0169754098</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-72937.11457540983</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-72937.11457540983</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-72937.11457540983</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-72905.11457540983</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-72929.11457540983</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-72951.11457540983</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-72951.11457540983</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-72951.11457540983</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-72951.11457540983</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-72951.11457540983</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-63138.11457540983</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-63138.11457540983</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-63160.11457540983</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-14873.38597540982</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-14873.38597540982</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-14873.38597540982</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-14884.38597540982</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-14884.38597540982</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-164613.7407754098</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-164434.8789867919</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-164434.8789867919</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-173935.710686792</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-159885.710686792</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-38777.55358679195</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-38405.01268679195</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-38172.11028679195</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-38194.11028679195</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-10867.69583761162</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-13812.66083761162</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-10182.19223761162</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-10193.19223761162</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-10203.19223761162</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-7550.192237611618</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -5335,14 +5335,10 @@
         <v>-2631927.257339251</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5372,2676 +5368,2240 @@
         <v>-2523127.346439251</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2640</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2525767.346439251</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>28954.0909</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2525767.346439251</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12</v>
+      </c>
+      <c r="C154" t="n">
+        <v>12</v>
+      </c>
+      <c r="D154" t="n">
+        <v>12</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12</v>
+      </c>
+      <c r="F154" t="n">
+        <v>132967.2887</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2658734.635139251</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>12</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12</v>
+      </c>
+      <c r="F155" t="n">
+        <v>26260.6961</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2658734.635139251</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>28109.17355371901</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2630625.461585531</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>70914.15974628099</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-2630625.461585531</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>120667.1273</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2630625.461585531</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>857.2065</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-2629768.255085532</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>51180.4237</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2680948.678785532</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>45333.82635371901</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-2680948.678785532</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-2680948.678785532</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>48228.5121</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2632720.166685532</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2632720.166685532</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2632720.166685532</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-2632720.166685532</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2638720.166685532</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6350</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2632370.166685532</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2632370.166685532</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-2632370.166685532</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4768.2733</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-2632370.166685532</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1983.7398</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-2632370.166685532</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3967.4797</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-2632370.166685532</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>698.4497</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2632370.166685532</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F175" t="n">
+        <v>123131.4445867769</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-2632370.166685532</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>26739.756</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-2605630.410685532</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-2609630.410685532</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>71652.02039999999</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-2537978.390285532</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E179" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>9451.071</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-2537978.390285532</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>17083</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-2555061.390285532</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C181" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E181" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>217316.456</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-2337744.934285532</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>8029</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-2345773.934285532</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5019</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-2345773.934285532</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4926</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-2345773.934285532</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3465</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-2345773.934285532</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F186" t="n">
+        <v>13294.9999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-2345773.934285532</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>12</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12</v>
+      </c>
+      <c r="F187" t="n">
+        <v>95785</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-2441558.934285532</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>8712</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-2432846.934285532</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4674</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-2432846.934285532</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F190" t="n">
+        <v>37362.6229</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-2395484.311385532</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>56250.7104</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-2395484.311385532</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>47093.6884</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-2395484.311385532</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>101477.8399</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-2496962.151285532</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D194" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F194" t="n">
+        <v>21684.5773</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-2475277.573985532</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>58279</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-2533556.573985532</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>26427.5994</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-2533556.573985532</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>55356.5188</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-2533556.573985532</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>420</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-2533556.573985532</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E199" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-2533556.573985532</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20917.459</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-2533556.573985532</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>139037.438</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-2533556.573985532</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>450000</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-2533556.573985532</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E203" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>19137.2205</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-2533556.573985532</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>167379.5901</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-2366176.983885532</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>96740.3168</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-2366176.983885532</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E206" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F206" t="n">
+        <v>263.307</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-2366440.290885532</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E207" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21602.2626</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-2366440.290885532</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E208" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>13</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-2366427.290885532</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C209" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D209" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F209" t="n">
+        <v>5942.1311</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-2366427.290885532</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C210" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D210" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E210" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F210" t="n">
+        <v>41341.127</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-2366427.290885532</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C211" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D211" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E211" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F211" t="n">
+        <v>62011.7213</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-2366427.290885532</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J211" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C212" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D212" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E212" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F212" t="n">
+        <v>62011.7213</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-2366427.290885532</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C213" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D213" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F213" t="n">
+        <v>167402.5099</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-2366427.290885532</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C214" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D214" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E214" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F214" t="n">
+        <v>731.7433</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-2366427.290885532</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C215" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D215" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E215" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F215" t="n">
+        <v>151494.8287</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-2214932.462185532</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J215" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C216" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D216" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E216" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F216" t="n">
+        <v>64230.0626</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-2279162.524785532</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E152" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2640</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-2525767.346439251</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J152" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E153" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F153" t="n">
-        <v>28954.0909</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-2525767.346439251</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J153" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>12</v>
-      </c>
-      <c r="C154" t="n">
-        <v>12</v>
-      </c>
-      <c r="D154" t="n">
-        <v>12</v>
-      </c>
-      <c r="E154" t="n">
-        <v>12</v>
-      </c>
-      <c r="F154" t="n">
-        <v>132967.2887</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-2658734.635139251</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J154" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>12</v>
-      </c>
-      <c r="C155" t="n">
-        <v>12</v>
-      </c>
-      <c r="D155" t="n">
-        <v>12</v>
-      </c>
-      <c r="E155" t="n">
-        <v>12</v>
-      </c>
-      <c r="F155" t="n">
-        <v>26260.6961</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-2658734.635139251</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>12</v>
-      </c>
-      <c r="J155" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E156" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F156" t="n">
-        <v>28109.17355371901</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-2630625.461585531</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>12</v>
-      </c>
-      <c r="J156" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>70914.15974628099</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-2630625.461585531</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J157" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C158" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E158" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F158" t="n">
-        <v>120667.1273</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-2630625.461585531</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>857.2065</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-2629768.255085532</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E160" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F160" t="n">
-        <v>51180.4237</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-2680948.678785532</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E161" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F161" t="n">
-        <v>45333.82635371901</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-2680948.678785532</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J161" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C162" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D162" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E162" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F162" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-2680948.678785532</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C163" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D163" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E163" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F163" t="n">
-        <v>48228.5121</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-2632720.166685532</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C164" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D164" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E164" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F164" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-2632720.166685532</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J164" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C165" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D165" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E165" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F165" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-2632720.166685532</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J165" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C166" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D166" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E166" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F166" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-2632720.166685532</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J166" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C167" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E167" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F167" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-2638720.166685532</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J167" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D168" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E168" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F168" t="n">
-        <v>6350</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C169" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D169" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E169" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F169" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J169" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C170" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D170" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E170" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F170" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J170" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C171" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D171" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E171" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F171" t="n">
-        <v>4768.2733</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J171" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C172" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D172" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E172" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1983.7398</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J172" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C173" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D173" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E173" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F173" t="n">
-        <v>3967.4797</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J173" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C174" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D174" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E174" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F174" t="n">
-        <v>698.4497</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J174" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C175" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D175" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E175" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F175" t="n">
-        <v>123131.4445867769</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J175" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C176" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D176" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E176" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F176" t="n">
-        <v>26739.756</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-2605630.410685532</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J176" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C177" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D177" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E177" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F177" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-2609630.410685532</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J177" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C178" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D178" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E178" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F178" t="n">
-        <v>71652.02039999999</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-2537978.390285532</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J178" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C179" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D179" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E179" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F179" t="n">
-        <v>9451.071</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-2537978.390285532</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J179" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C180" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D180" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E180" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F180" t="n">
-        <v>17083</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-2555061.390285532</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C181" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D181" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E181" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F181" t="n">
-        <v>217316.456</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-2337744.934285532</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J181" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C182" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D182" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E182" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F182" t="n">
-        <v>8029</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-2345773.934285532</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J182" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C183" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D183" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E183" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F183" t="n">
-        <v>5019</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-2345773.934285532</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J183" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C184" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D184" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E184" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F184" t="n">
-        <v>4926</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-2345773.934285532</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J184" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C185" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D185" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E185" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F185" t="n">
-        <v>3465</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-2345773.934285532</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J185" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C186" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D186" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E186" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F186" t="n">
-        <v>13294.9999</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-2345773.934285532</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J186" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C187" t="n">
-        <v>12</v>
-      </c>
-      <c r="D187" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E187" t="n">
-        <v>12</v>
-      </c>
-      <c r="F187" t="n">
-        <v>95785</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-2441558.934285532</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J187" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C188" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D188" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E188" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F188" t="n">
-        <v>8712</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-2432846.934285532</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>12</v>
-      </c>
-      <c r="J188" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C189" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D189" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E189" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F189" t="n">
-        <v>4674</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-2432846.934285532</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J189" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C190" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D190" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E190" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F190" t="n">
-        <v>37362.6229</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-2395484.311385532</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J190" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C191" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D191" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E191" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F191" t="n">
-        <v>56250.7104</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-2395484.311385532</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J191" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C192" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D192" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E192" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F192" t="n">
-        <v>47093.6884</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-2395484.311385532</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J192" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C193" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E193" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F193" t="n">
-        <v>101477.8399</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-2496962.151285532</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J193" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C194" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D194" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E194" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F194" t="n">
-        <v>21684.5773</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-2475277.573985532</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J194" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C195" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D195" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E195" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F195" t="n">
-        <v>58279</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J195" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C196" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D196" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E196" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F196" t="n">
-        <v>26427.5994</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J196" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C197" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D197" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E197" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F197" t="n">
-        <v>55356.5188</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J197" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C198" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D198" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E198" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F198" t="n">
-        <v>420</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J198" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C199" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D199" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E199" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J199" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C200" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D200" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E200" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F200" t="n">
-        <v>20917.459</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J200" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C201" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E201" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F201" t="n">
-        <v>139037.438</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J201" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F202" t="n">
-        <v>450000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C203" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D203" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E203" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F203" t="n">
-        <v>19137.2205</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J203" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C204" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D204" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E204" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F204" t="n">
-        <v>167379.5901</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-2366176.983885532</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J204" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C205" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D205" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E205" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F205" t="n">
-        <v>96740.3168</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-2366176.983885532</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J205" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C206" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D206" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E206" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F206" t="n">
-        <v>263.307</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-2366440.290885532</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J206" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C207" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D207" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E207" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F207" t="n">
-        <v>21602.2626</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-2366440.290885532</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J207" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C208" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D208" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E208" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F208" t="n">
-        <v>13</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J208" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C209" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D209" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E209" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F209" t="n">
-        <v>5942.1311</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J209" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C210" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D210" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E210" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F210" t="n">
-        <v>41341.127</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J210" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C211" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D211" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E211" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F211" t="n">
-        <v>62011.7213</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J211" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C212" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D212" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E212" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F212" t="n">
-        <v>62011.7213</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J212" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C213" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D213" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E213" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F213" t="n">
-        <v>167402.5099</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J213" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C214" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D214" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E214" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F214" t="n">
-        <v>731.7433</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J214" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C215" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D215" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E215" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F215" t="n">
-        <v>151494.8287</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-2214932.462185532</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J215" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C216" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D216" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E216" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F216" t="n">
-        <v>64230.0626</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-2279162.524785532</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J216" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8074,7 +7634,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8113,7 +7673,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8152,7 +7712,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8191,7 +7751,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8226,13 +7786,11 @@
         <v>-2187953.579785532</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8271,7 +7829,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8306,13 +7864,11 @@
         <v>-2197920.579785532</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8347,13 +7903,11 @@
         <v>-2276751.387885532</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8388,13 +7942,11 @@
         <v>-2302211.749485532</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8429,13 +7981,11 @@
         <v>-2110091.442919678</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8474,7 +8024,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8513,7 +8063,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8552,7 +8102,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8591,7 +8141,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8630,7 +8180,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8669,7 +8219,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8704,13 +8254,11 @@
         <v>-1932146.156019678</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8745,13 +8293,11 @@
         <v>-1932146.156019678</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8786,13 +8332,11 @@
         <v>-1932146.156019678</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8827,13 +8371,11 @@
         <v>-1850845.343011548</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8872,7 +8414,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8911,7 +8453,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8950,7 +8492,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8989,7 +8531,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9028,7 +8570,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9067,7 +8609,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9106,7 +8648,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9145,7 +8687,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9184,7 +8726,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9223,7 +8765,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9262,7 +8804,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9301,7 +8843,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9336,13 +8878,11 @@
         <v>-1777467.069311548</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9381,7 +8921,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9420,7 +8960,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9459,7 +8999,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9498,7 +9038,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9537,7 +9077,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9576,7 +9116,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9615,7 +9155,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9654,7 +9194,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9693,7 +9233,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9728,19 +9268,19 @@
         <v>-1669793.950111548</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>1</v>
+        <v>1.011393442622951</v>
       </c>
       <c r="M259" t="inlineStr"/>
     </row>
@@ -9770,14 +9310,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9809,14 +9343,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9848,14 +9376,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9887,14 +9409,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9926,14 +9442,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9965,14 +9475,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10004,14 +9508,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10043,14 +9541,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10082,14 +9574,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10121,14 +9607,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10160,14 +9640,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10199,14 +9673,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10238,14 +9706,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10277,14 +9739,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10316,14 +9772,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10355,14 +9805,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10394,14 +9838,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10433,14 +9871,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10472,14 +9904,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10511,14 +9937,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10547,17 +9967,11 @@
         <v>-1723439.168111548</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10586,17 +10000,11 @@
         <v>-2018093.417011548</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10625,17 +10033,11 @@
         <v>-2018093.417011548</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10664,17 +10066,11 @@
         <v>-1909255.358432183</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10703,17 +10099,11 @@
         <v>-1909255.358432183</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10745,14 +10135,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10784,14 +10168,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10823,14 +10201,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10862,14 +10234,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10901,14 +10267,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10940,14 +10300,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10979,14 +10333,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11018,14 +10366,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11057,14 +10399,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11096,14 +10432,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11135,14 +10465,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11174,14 +10498,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11213,14 +10531,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11252,14 +10564,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11291,14 +10597,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11330,14 +10630,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11369,14 +10663,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11408,14 +10696,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11447,14 +10729,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11486,14 +10762,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11522,23 +10792,15 @@
         <v>-1139153.524932183</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
-        <v>1.052851239669422</v>
-      </c>
-      <c r="M305" t="n">
-        <v>1.042016806722689</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11563,7 +10825,7 @@
         <v>-1139153.524932183</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11596,7 +10858,7 @@
         <v>-1171602.910732183</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11629,7 +10891,7 @@
         <v>-1216602.910732183</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11662,7 +10924,7 @@
         <v>-1241774.991932183</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11695,7 +10957,7 @@
         <v>-1217984.991932183</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11728,7 +10990,7 @@
         <v>-1247976.366932183</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11739,6 +11001,6 @@
       <c r="M311" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-29 BackTest ORBS.xlsx
@@ -6820,10 +6820,14 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J195" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
@@ -6853,11 +6857,19 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6898,19 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,10 +6939,14 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
@@ -6960,7 +6984,11 @@
       <c r="J199" t="n">
         <v>12.1</v>
       </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7038,48 +7066,48 @@
       <c r="J201" t="n">
         <v>12.1</v>
       </c>
-      <c r="K201" t="inlineStr">
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>450000</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-2533556.573985532</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F202" t="n">
-        <v>450000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7157,44 +7185,48 @@
       <c r="J204" t="n">
         <v>12.1</v>
       </c>
-      <c r="K204" t="inlineStr">
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>96740.3168</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-2366176.983885532</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C205" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D205" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E205" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F205" t="n">
-        <v>96740.3168</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-2366176.983885532</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7223,11 +7255,19 @@
         <v>-2366440.290885532</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7334,9 +7374,11 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J209" t="n">
         <v>12.1</v>
       </c>
@@ -7443,9 +7485,11 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J212" t="n">
         <v>12.2</v>
       </c>
@@ -7521,10 +7565,14 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
@@ -7562,7 +7610,11 @@
       <c r="J215" t="n">
         <v>12.2</v>
       </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -9268,1009 +9320,1189 @@
         <v>-1669793.950111548</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
         <v>12.2</v>
       </c>
       <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C260" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D260" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E260" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F260" t="n">
+        <v>5918.993908130081</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1669793.950111548</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C261" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D261" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E261" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F261" t="n">
+        <v>109641.006</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1669793.950111548</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C262" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D262" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E262" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F262" t="n">
+        <v>693.471</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-1669793.950111548</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C263" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D263" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E263" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F263" t="n">
+        <v>194214.8256</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-1669793.950111548</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C264" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D264" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E264" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F264" t="n">
+        <v>182</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1669975.950111548</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C265" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D265" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E265" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F265" t="n">
+        <v>30269.0211</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1669975.950111548</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C266" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D266" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E266" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F266" t="n">
+        <v>81.96720000000001</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-1669893.982911548</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C267" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D267" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E267" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F267" t="n">
+        <v>59774.4478</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-1610119.535111548</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C268" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D268" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E268" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F268" t="n">
+        <v>10</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-1610109.535111548</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C269" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D269" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E269" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F269" t="n">
+        <v>135156.6533</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-1745266.188411548</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C270" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D270" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E270" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-1745266.188411548</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C271" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D271" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E271" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F271" t="n">
+        <v>5460.2235</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-1739805.964911548</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C272" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D272" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E272" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F272" t="n">
+        <v>260.1587</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-1740066.123611548</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C273" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D273" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E273" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F273" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-1740066.123611548</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C274" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D274" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F274" t="n">
+        <v>10</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-1740056.123611548</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C275" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D275" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E275" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F275" t="n">
+        <v>357247.4602206349</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-1740056.123611548</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C276" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D276" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E276" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3711.8571</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-1740056.123611548</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C277" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D277" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>14610</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-1754666.123611548</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C278" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D278" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E278" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F278" t="n">
+        <v>31226.9555</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-1723439.168111548</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C279" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D279" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E279" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F279" t="n">
+        <v>47189.5012</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-1723439.168111548</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C280" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D280" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E280" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F280" t="n">
+        <v>132371.5322</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-1723439.168111548</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C281" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D281" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E281" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F281" t="n">
+        <v>294654.2489</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-2018093.417011548</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C282" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D282" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E282" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F282" t="n">
+        <v>15270</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-2018093.417011548</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C283" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D283" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E283" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F283" t="n">
+        <v>108838.0585793651</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-1909255.358432183</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C284" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D284" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E284" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F284" t="n">
+        <v>42719.6488</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-1909255.358432183</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C285" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E285" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F285" t="n">
+        <v>379637.3177</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-1909255.358432183</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C286" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D286" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E286" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F286" t="n">
+        <v>53211.3385</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-1856044.019932183</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C287" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D287" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E287" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F287" t="n">
+        <v>747813.6716999999</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-1108230.348232183</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C288" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D288" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E288" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F288" t="n">
+        <v>15969.0625</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-1108230.348232183</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C289" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D289" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E289" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F289" t="n">
+        <v>107301.6489</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-1108230.348232183</v>
+      </c>
+      <c r="H289" t="n">
+        <v>2</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L259" t="n">
-        <v>1.011393442622951</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C260" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D260" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E260" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F260" t="n">
-        <v>5918.993908130081</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C261" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D261" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E261" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F261" t="n">
-        <v>109641.006</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C262" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D262" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E262" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F262" t="n">
-        <v>693.471</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C263" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D263" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E263" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F263" t="n">
-        <v>194214.8256</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C264" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D264" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E264" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F264" t="n">
-        <v>182</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-1669975.950111548</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C265" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D265" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E265" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F265" t="n">
-        <v>30269.0211</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-1669975.950111548</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C266" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D266" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E266" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F266" t="n">
-        <v>81.96720000000001</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-1669893.982911548</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C267" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D267" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E267" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F267" t="n">
-        <v>59774.4478</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-1610119.535111548</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C268" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D268" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E268" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F268" t="n">
-        <v>10</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-1610109.535111548</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C269" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D269" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E269" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F269" t="n">
-        <v>135156.6533</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-1745266.188411548</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C270" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D270" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E270" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F270" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-1745266.188411548</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C271" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D271" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E271" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F271" t="n">
-        <v>5460.2235</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-1739805.964911548</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C272" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D272" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E272" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F272" t="n">
-        <v>260.1587</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-1740066.123611548</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C273" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D273" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E273" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F273" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-1740066.123611548</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C274" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D274" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E274" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F274" t="n">
-        <v>10</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-1740056.123611548</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C275" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D275" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E275" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F275" t="n">
-        <v>357247.4602206349</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-1740056.123611548</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C276" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D276" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E276" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F276" t="n">
-        <v>3711.8571</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-1740056.123611548</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C277" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D277" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E277" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F277" t="n">
-        <v>14610</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-1754666.123611548</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C278" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D278" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E278" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F278" t="n">
-        <v>31226.9555</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-1723439.168111548</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C279" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D279" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E279" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F279" t="n">
-        <v>47189.5012</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-1723439.168111548</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C280" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D280" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E280" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F280" t="n">
-        <v>132371.5322</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-1723439.168111548</v>
-      </c>
-      <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C281" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D281" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E281" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F281" t="n">
-        <v>294654.2489</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-2018093.417011548</v>
-      </c>
-      <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C282" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D282" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E282" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F282" t="n">
-        <v>15270</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-2018093.417011548</v>
-      </c>
-      <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C283" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D283" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E283" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F283" t="n">
-        <v>108838.0585793651</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-1909255.358432183</v>
-      </c>
-      <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C284" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D284" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E284" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F284" t="n">
-        <v>42719.6488</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-1909255.358432183</v>
-      </c>
-      <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C285" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D285" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E285" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F285" t="n">
-        <v>379637.3177</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-1909255.358432183</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C286" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D286" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E286" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F286" t="n">
-        <v>53211.3385</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-1856044.019932183</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C287" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D287" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E287" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F287" t="n">
-        <v>747813.6716999999</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C288" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D288" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E288" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F288" t="n">
-        <v>15969.0625</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C289" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D289" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E289" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F289" t="n">
-        <v>107301.6489</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
-        <v>1</v>
+        <v>1.044180327868853</v>
       </c>
       <c r="M289" t="inlineStr"/>
     </row>
@@ -10330,7 +10562,7 @@
         <v>-1108230.348232183</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10462,7 +10694,7 @@
         <v>-1133355.523632183</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10660,7 +10892,7 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10693,7 +10925,7 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10726,7 +10958,7 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10759,7 +10991,7 @@
         <v>-1095173.805232183</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10792,7 +11024,7 @@
         <v>-1139153.524932183</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10825,7 +11057,7 @@
         <v>-1139153.524932183</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10858,7 +11090,7 @@
         <v>-1171602.910732183</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10891,7 +11123,7 @@
         <v>-1216602.910732183</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10924,7 +11156,7 @@
         <v>-1241774.991932183</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10957,7 +11189,7 @@
         <v>-1217984.991932183</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10990,7 +11222,7 @@
         <v>-1247976.366932183</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-29 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M311"/>
+  <dimension ref="A1:L311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4136.092</v>
       </c>
       <c r="G2" t="n">
-        <v>309561.1240245902</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>83209.0163</v>
       </c>
       <c r="G3" t="n">
-        <v>309561.1240245902</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>4160.4508</v>
       </c>
       <c r="G4" t="n">
-        <v>309561.1240245902</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>443270.8078</v>
       </c>
       <c r="G5" t="n">
-        <v>-133709.6837754098</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>11911.0896</v>
       </c>
       <c r="G6" t="n">
-        <v>-121798.5941754098</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>733.5771999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-121065.0169754098</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>-121087.0169754098</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10904</v>
       </c>
       <c r="G9" t="n">
-        <v>-110183.0169754098</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>-110194.0169754098</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>-110194.0169754098</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>-110194.0169754098</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-110184.0169754098</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>-110209.0169754098</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>5669</v>
       </c>
       <c r="G15" t="n">
-        <v>-104540.0169754098</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>-104551.0169754098</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>-104551.0169754098</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>5041.9834</v>
       </c>
       <c r="G18" t="n">
-        <v>-104551.0169754098</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>31613.9024</v>
       </c>
       <c r="G19" t="n">
-        <v>-72937.11457540983</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>187047.2113</v>
       </c>
       <c r="G20" t="n">
-        <v>-72937.11457540983</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>159050.7478</v>
       </c>
       <c r="G21" t="n">
-        <v>-72937.11457540983</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>32</v>
       </c>
       <c r="G22" t="n">
-        <v>-72905.11457540983</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>-72929.11457540983</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>5820</v>
       </c>
       <c r="G24" t="n">
-        <v>-72929.11457540983</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>5836</v>
       </c>
       <c r="G25" t="n">
-        <v>-72929.11457540983</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>93597.50049999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-72929.11457540983</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>8400</v>
       </c>
       <c r="G27" t="n">
-        <v>-72929.11457540983</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>7770</v>
       </c>
       <c r="G28" t="n">
-        <v>-72929.11457540983</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2590</v>
       </c>
       <c r="G29" t="n">
-        <v>-72929.11457540983</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>40650.40650406504</v>
       </c>
       <c r="G30" t="n">
-        <v>-72929.11457540983</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>22</v>
       </c>
       <c r="G31" t="n">
-        <v>-72951.11457540983</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>150881.1808</v>
       </c>
       <c r="G32" t="n">
-        <v>-72951.11457540983</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>126178</v>
       </c>
       <c r="G33" t="n">
-        <v>-72951.11457540983</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>11310</v>
       </c>
       <c r="G34" t="n">
-        <v>-72951.11457540983</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>24002.6644</v>
       </c>
       <c r="G35" t="n">
-        <v>-72951.11457540983</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>9813</v>
       </c>
       <c r="G36" t="n">
-        <v>-63138.11457540983</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>61289.5121</v>
       </c>
       <c r="G37" t="n">
-        <v>-63138.11457540983</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>22</v>
       </c>
       <c r="G38" t="n">
-        <v>-63160.11457540983</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>48286.7286</v>
       </c>
       <c r="G39" t="n">
-        <v>-14873.38597540982</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>-14873.38597540982</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>32789.4258</v>
       </c>
       <c r="G41" t="n">
-        <v>-14873.38597540982</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>-14884.38597540982</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>28</v>
       </c>
       <c r="G43" t="n">
-        <v>-14884.38597540982</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>149729.3548</v>
       </c>
       <c r="G44" t="n">
-        <v>-164613.7407754098</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>178.8617886178862</v>
       </c>
       <c r="G45" t="n">
-        <v>-164434.8789867919</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>11067.6666</v>
       </c>
       <c r="G46" t="n">
-        <v>-164434.8789867919</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>9500.831700000001</v>
       </c>
       <c r="G47" t="n">
-        <v>-173935.710686792</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>14050</v>
       </c>
       <c r="G48" t="n">
-        <v>-159885.710686792</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>-159885.710686792</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>157708.8346</v>
       </c>
       <c r="G50" t="n">
-        <v>-2176.876086791948</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>36600.6775</v>
       </c>
       <c r="G51" t="n">
-        <v>-38777.55358679195</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>-38777.55358679195</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>372.5409</v>
       </c>
       <c r="G53" t="n">
-        <v>-38405.01268679195</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>-38416.01268679195</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>243.9024</v>
       </c>
       <c r="G55" t="n">
-        <v>-38172.11028679195</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>-38182.11028679195</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>23927.9674</v>
       </c>
       <c r="G57" t="n">
-        <v>-38182.11028679195</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>29175.34405081967</v>
       </c>
       <c r="G58" t="n">
-        <v>-38182.11028679195</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>12</v>
       </c>
       <c r="G59" t="n">
-        <v>-38194.11028679195</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>27335.42634918033</v>
       </c>
       <c r="G60" t="n">
-        <v>-10858.68393761162</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-10848.68393761162</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>19.0119</v>
       </c>
       <c r="G62" t="n">
-        <v>-10867.69583761162</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>11</v>
       </c>
       <c r="G63" t="n">
-        <v>-10856.69583761162</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>2968.965</v>
       </c>
       <c r="G64" t="n">
-        <v>-13825.66083761162</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>13</v>
       </c>
       <c r="G65" t="n">
-        <v>-13812.66083761162</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>394.3902</v>
       </c>
       <c r="G66" t="n">
-        <v>-14207.05103761162</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>4024.8588</v>
       </c>
       <c r="G67" t="n">
-        <v>-10182.19223761162</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>-10193.19223761162</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>25</v>
       </c>
       <c r="G69" t="n">
-        <v>-10193.19223761162</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>112170.5364</v>
       </c>
       <c r="G70" t="n">
-        <v>-10193.19223761162</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>-10203.19223761162</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>2823</v>
       </c>
       <c r="G72" t="n">
-        <v>-10203.19223761162</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>2653</v>
       </c>
       <c r="G73" t="n">
-        <v>-7550.192237611618</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>79708.5365</v>
       </c>
       <c r="G74" t="n">
-        <v>-7550.192237611618</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1302.136</v>
       </c>
       <c r="G75" t="n">
-        <v>-8852.328237611619</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1783.6956</v>
       </c>
       <c r="G76" t="n">
-        <v>-8852.328237611619</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>306252.0325</v>
       </c>
       <c r="G77" t="n">
-        <v>297399.7042623883</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>40482.3284</v>
       </c>
       <c r="G78" t="n">
-        <v>297399.7042623883</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>61136.2883</v>
       </c>
       <c r="G79" t="n">
-        <v>297399.7042623883</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>30136.7491</v>
       </c>
       <c r="G80" t="n">
-        <v>297399.7042623883</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>297388.7042623883</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>13</v>
       </c>
       <c r="G82" t="n">
-        <v>297388.7042623883</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>37824.8286</v>
       </c>
       <c r="G83" t="n">
-        <v>297388.7042623883</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>44</v>
       </c>
       <c r="G84" t="n">
-        <v>297344.7042623883</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>297355.7042623883</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>555332.5774508197</v>
       </c>
       <c r="G86" t="n">
-        <v>-257976.8731884313</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>20000</v>
       </c>
       <c r="G87" t="n">
-        <v>-257976.8731884313</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>-257987.8731884313</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>12</v>
       </c>
       <c r="G89" t="n">
-        <v>-257975.8731884313</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>6562.2418</v>
       </c>
       <c r="G90" t="n">
-        <v>-264538.1149884313</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>13281.87594918033</v>
       </c>
       <c r="G91" t="n">
-        <v>-251256.239039251</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>19</v>
       </c>
       <c r="G92" t="n">
-        <v>-251237.239039251</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>12</v>
       </c>
       <c r="G93" t="n">
-        <v>-251249.239039251</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>-251249.239039251</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>35157.5409</v>
       </c>
       <c r="G95" t="n">
-        <v>-216091.698139251</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>13</v>
       </c>
       <c r="G96" t="n">
-        <v>-216104.698139251</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>62138.6131</v>
       </c>
       <c r="G97" t="n">
-        <v>-153966.085039251</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>14</v>
       </c>
       <c r="G98" t="n">
-        <v>-153980.085039251</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>38116.97375081967</v>
       </c>
       <c r="G99" t="n">
-        <v>-153980.085039251</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>7307.2539</v>
       </c>
       <c r="G100" t="n">
-        <v>-153980.085039251</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>4544.836</v>
       </c>
       <c r="G101" t="n">
-        <v>-149435.249039251</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>13</v>
       </c>
       <c r="G102" t="n">
-        <v>-149448.249039251</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>648.3606</v>
       </c>
       <c r="G103" t="n">
-        <v>-149448.249039251</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>50</v>
       </c>
       <c r="G104" t="n">
-        <v>-149448.249039251</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>121320.9821</v>
       </c>
       <c r="G105" t="n">
-        <v>-149448.249039251</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>13</v>
       </c>
       <c r="G106" t="n">
-        <v>-149435.249039251</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>13</v>
       </c>
       <c r="G107" t="n">
-        <v>-149448.249039251</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>-149448.249039251</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>235458.3812</v>
       </c>
       <c r="G109" t="n">
-        <v>-384906.630239251</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>-384895.630239251</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>4564.5965</v>
       </c>
       <c r="G111" t="n">
-        <v>-384895.630239251</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>2948.0867</v>
       </c>
       <c r="G112" t="n">
-        <v>-384895.630239251</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>11</v>
       </c>
       <c r="G113" t="n">
-        <v>-384906.630239251</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>45.2066</v>
       </c>
       <c r="G114" t="n">
-        <v>-384861.423639251</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>11274.1322</v>
       </c>
       <c r="G115" t="n">
-        <v>-384861.423639251</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>9635.6214</v>
       </c>
       <c r="G116" t="n">
-        <v>-384861.423639251</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>50508.5042</v>
       </c>
       <c r="G117" t="n">
-        <v>-334352.919439251</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>69559.8385</v>
       </c>
       <c r="G118" t="n">
-        <v>-334352.919439251</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>274220.8264</v>
       </c>
       <c r="G119" t="n">
-        <v>-608573.745839251</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>11</v>
       </c>
       <c r="G120" t="n">
-        <v>-608584.745839251</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>9107.0506</v>
       </c>
       <c r="G121" t="n">
-        <v>-599477.695239251</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>51878.5123</v>
       </c>
       <c r="G122" t="n">
-        <v>-651356.2075392511</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>4451.971</v>
       </c>
       <c r="G123" t="n">
-        <v>-651356.2075392511</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>615055.5162</v>
       </c>
       <c r="G124" t="n">
-        <v>-1266411.723739251</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>272.7481</v>
       </c>
       <c r="G125" t="n">
-        <v>-1266411.723739251</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>15973.4131</v>
       </c>
       <c r="G126" t="n">
-        <v>-1266411.723739251</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>13</v>
       </c>
       <c r="G127" t="n">
-        <v>-1266398.723739251</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,19 @@
         <v>35069.647</v>
       </c>
       <c r="G128" t="n">
-        <v>-1301468.370739251</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4257,23 @@
         <v>52168.6081</v>
       </c>
       <c r="G129" t="n">
-        <v>-1249299.762639251</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="I129" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4295,23 @@
         <v>163124.0100421488</v>
       </c>
       <c r="G130" t="n">
-        <v>-1249299.762639251</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4333,19 @@
         <v>43858.7438</v>
       </c>
       <c r="G131" t="n">
-        <v>-1249299.762639251</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4367,21 @@
         <v>298064.3743</v>
       </c>
       <c r="G132" t="n">
-        <v>-1249299.762639251</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4403,21 @@
         <v>4132.231404958678</v>
       </c>
       <c r="G133" t="n">
-        <v>-1249299.762639251</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4439,15 @@
         <v>49718.77475289256</v>
       </c>
       <c r="G134" t="n">
-        <v>-1249299.762639251</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4469,15 @@
         <v>100000</v>
       </c>
       <c r="G135" t="n">
-        <v>-1249299.762639251</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4499,15 @@
         <v>37941.1716</v>
       </c>
       <c r="G136" t="n">
-        <v>-1211358.591039251</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4529,15 @@
         <v>65245.9016</v>
       </c>
       <c r="G137" t="n">
-        <v>-1211358.591039251</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4559,15 @@
         <v>128379.4829</v>
       </c>
       <c r="G138" t="n">
-        <v>-1339738.073939251</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4589,15 @@
         <v>42.1639</v>
       </c>
       <c r="G139" t="n">
-        <v>-1339695.910039251</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4619,15 @@
         <v>45644.3739</v>
       </c>
       <c r="G140" t="n">
-        <v>-1339695.910039251</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4649,15 @@
         <v>483758.2064</v>
       </c>
       <c r="G141" t="n">
-        <v>-1823454.116439251</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4679,15 @@
         <v>69.1147</v>
       </c>
       <c r="G142" t="n">
-        <v>-1823385.001739251</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4709,15 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>-1823395.001739251</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4739,15 @@
         <v>3830</v>
       </c>
       <c r="G144" t="n">
-        <v>-1823395.001739251</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4769,15 @@
         <v>808971.4957</v>
       </c>
       <c r="G145" t="n">
-        <v>-2632366.497439251</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4799,15 @@
         <v>108.6616</v>
       </c>
       <c r="G146" t="n">
-        <v>-2632257.835839251</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4829,15 @@
         <v>16842.966</v>
       </c>
       <c r="G147" t="n">
-        <v>-2632257.835839251</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4859,19 @@
         <v>330.5785</v>
       </c>
       <c r="G148" t="n">
-        <v>-2631927.257339251</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="I148" t="n">
+        <v>12</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4893,23 @@
         <v>23506.77685950413</v>
       </c>
       <c r="G149" t="n">
-        <v>-2631927.257339251</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>12</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4931,23 @@
         <v>449</v>
       </c>
       <c r="G150" t="n">
-        <v>-2631927.257339251</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>12</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4969,23 @@
         <v>108799.9109</v>
       </c>
       <c r="G151" t="n">
-        <v>-2523127.346439251</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>12</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5007,23 @@
         <v>2640</v>
       </c>
       <c r="G152" t="n">
-        <v>-2525767.346439251</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I152" t="n">
+        <v>12</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5045,23 @@
         <v>28954.0909</v>
       </c>
       <c r="G153" t="n">
-        <v>-2525767.346439251</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>12</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5083,23 @@
         <v>132967.2887</v>
       </c>
       <c r="G154" t="n">
-        <v>-2658734.635139251</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>12</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5121,23 @@
         <v>26260.6961</v>
       </c>
       <c r="G155" t="n">
-        <v>-2658734.635139251</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="I155" t="n">
+        <v>12</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5159,23 @@
         <v>28109.17355371901</v>
       </c>
       <c r="G156" t="n">
-        <v>-2630625.461585531</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="I156" t="n">
+        <v>12</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5197,23 @@
         <v>70914.15974628099</v>
       </c>
       <c r="G157" t="n">
-        <v>-2630625.461585531</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>12</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5235,23 @@
         <v>120667.1273</v>
       </c>
       <c r="G158" t="n">
-        <v>-2630625.461585531</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>12</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5273,23 @@
         <v>857.2065</v>
       </c>
       <c r="G159" t="n">
-        <v>-2629768.255085532</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>12</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5311,21 @@
         <v>51180.4237</v>
       </c>
       <c r="G160" t="n">
-        <v>-2680948.678785532</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>12</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5347,21 @@
         <v>45333.82635371901</v>
       </c>
       <c r="G161" t="n">
-        <v>-2680948.678785532</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>12</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5383,21 @@
         <v>10000</v>
       </c>
       <c r="G162" t="n">
-        <v>-2680948.678785532</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>12</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5419,23 @@
         <v>48228.5121</v>
       </c>
       <c r="G163" t="n">
-        <v>-2632720.166685532</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>12</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5457,23 @@
         <v>4000</v>
       </c>
       <c r="G164" t="n">
-        <v>-2632720.166685532</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I164" t="n">
+        <v>12</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5495,23 @@
         <v>6000</v>
       </c>
       <c r="G165" t="n">
-        <v>-2632720.166685532</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I165" t="n">
+        <v>12</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5533,21 @@
         <v>6000</v>
       </c>
       <c r="G166" t="n">
-        <v>-2632720.166685532</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5569,21 @@
         <v>6000</v>
       </c>
       <c r="G167" t="n">
-        <v>-2638720.166685532</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5605,21 @@
         <v>6350</v>
       </c>
       <c r="G168" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5641,21 @@
         <v>4000</v>
       </c>
       <c r="G169" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5677,21 @@
         <v>4000</v>
       </c>
       <c r="G170" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5713,21 @@
         <v>4768.2733</v>
       </c>
       <c r="G171" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>12</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5749,21 @@
         <v>1983.7398</v>
       </c>
       <c r="G172" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5785,21 @@
         <v>3967.4797</v>
       </c>
       <c r="G173" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5821,23 @@
         <v>698.4497</v>
       </c>
       <c r="G174" t="n">
-        <v>-2632370.166685532</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5859,21 @@
         <v>123131.4445867769</v>
       </c>
       <c r="G175" t="n">
-        <v>-2632370.166685532</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>12</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5895,21 @@
         <v>26739.756</v>
       </c>
       <c r="G176" t="n">
-        <v>-2605630.410685532</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5931,21 @@
         <v>4000</v>
       </c>
       <c r="G177" t="n">
-        <v>-2609630.410685532</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>12</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5967,21 @@
         <v>71652.02039999999</v>
       </c>
       <c r="G178" t="n">
-        <v>-2537978.390285532</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>12</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6003,23 @@
         <v>9451.071</v>
       </c>
       <c r="G179" t="n">
-        <v>-2537978.390285532</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="I179" t="n">
+        <v>12</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6041,21 @@
         <v>17083</v>
       </c>
       <c r="G180" t="n">
-        <v>-2555061.390285532</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>12</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6077,23 @@
         <v>217316.456</v>
       </c>
       <c r="G181" t="n">
-        <v>-2337744.934285532</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I181" t="n">
+        <v>12</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6115,21 @@
         <v>8029</v>
       </c>
       <c r="G182" t="n">
-        <v>-2345773.934285532</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>12</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6151,21 @@
         <v>5019</v>
       </c>
       <c r="G183" t="n">
-        <v>-2345773.934285532</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>12</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6187,21 @@
         <v>4926</v>
       </c>
       <c r="G184" t="n">
-        <v>-2345773.934285532</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>12</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6223,21 @@
         <v>3465</v>
       </c>
       <c r="G185" t="n">
-        <v>-2345773.934285532</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>12</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6259,21 @@
         <v>13294.9999</v>
       </c>
       <c r="G186" t="n">
-        <v>-2345773.934285532</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>12</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6295,21 @@
         <v>95785</v>
       </c>
       <c r="G187" t="n">
-        <v>-2441558.934285532</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>12</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6331,21 @@
         <v>8712</v>
       </c>
       <c r="G188" t="n">
-        <v>-2432846.934285532</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>12</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6367,21 @@
         <v>4674</v>
       </c>
       <c r="G189" t="n">
-        <v>-2432846.934285532</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>12</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6403,21 @@
         <v>37362.6229</v>
       </c>
       <c r="G190" t="n">
-        <v>-2395484.311385532</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>12</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6439,21 @@
         <v>56250.7104</v>
       </c>
       <c r="G191" t="n">
-        <v>-2395484.311385532</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>12</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6475,21 @@
         <v>47093.6884</v>
       </c>
       <c r="G192" t="n">
-        <v>-2395484.311385532</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>12</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6511,21 @@
         <v>101477.8399</v>
       </c>
       <c r="G193" t="n">
-        <v>-2496962.151285532</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>12</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6547,21 @@
         <v>21684.5773</v>
       </c>
       <c r="G194" t="n">
-        <v>-2475277.573985532</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>12</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,22 +6583,21 @@
         <v>58279</v>
       </c>
       <c r="G195" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J195" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6854,26 +6619,21 @@
         <v>26427.5994</v>
       </c>
       <c r="G196" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J196" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6895,26 +6655,21 @@
         <v>55356.5188</v>
       </c>
       <c r="G197" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J197" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6936,22 +6691,21 @@
         <v>420</v>
       </c>
       <c r="G198" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J198" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6973,26 +6727,21 @@
         <v>1000</v>
       </c>
       <c r="G199" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J199" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7014,26 +6763,21 @@
         <v>20917.459</v>
       </c>
       <c r="G200" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J200" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7055,22 +6799,21 @@
         <v>139037.438</v>
       </c>
       <c r="G201" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J201" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7092,26 +6835,21 @@
         <v>450000</v>
       </c>
       <c r="G202" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J202" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7133,26 +6871,21 @@
         <v>19137.2205</v>
       </c>
       <c r="G203" t="n">
-        <v>-2533556.573985532</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J203" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7174,22 +6907,21 @@
         <v>167379.5901</v>
       </c>
       <c r="G204" t="n">
-        <v>-2366176.983885532</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J204" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7211,26 +6943,21 @@
         <v>96740.3168</v>
       </c>
       <c r="G205" t="n">
-        <v>-2366176.983885532</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J205" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7252,26 +6979,21 @@
         <v>263.307</v>
       </c>
       <c r="G206" t="n">
-        <v>-2366440.290885532</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J206" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7293,22 +7015,21 @@
         <v>21602.2626</v>
       </c>
       <c r="G207" t="n">
-        <v>-2366440.290885532</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J207" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7330,26 +7051,21 @@
         <v>13</v>
       </c>
       <c r="G208" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J208" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7371,26 +7087,21 @@
         <v>5942.1311</v>
       </c>
       <c r="G209" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J209" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7412,18 +7123,21 @@
         <v>41341.127</v>
       </c>
       <c r="G210" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>12</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7445,22 +7159,21 @@
         <v>62011.7213</v>
       </c>
       <c r="G211" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J211" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7482,26 +7195,21 @@
         <v>62011.7213</v>
       </c>
       <c r="G212" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J212" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7523,24 +7231,21 @@
         <v>167402.5099</v>
       </c>
       <c r="G213" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>12</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7562,22 +7267,21 @@
         <v>731.7433</v>
       </c>
       <c r="G214" t="n">
-        <v>-2366427.290885532</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J214" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7599,26 +7303,21 @@
         <v>151494.8287</v>
       </c>
       <c r="G215" t="n">
-        <v>-2214932.462185532</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J215" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7640,24 +7339,21 @@
         <v>64230.0626</v>
       </c>
       <c r="G216" t="n">
-        <v>-2279162.524785532</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>12</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7679,24 +7375,21 @@
         <v>10</v>
       </c>
       <c r="G217" t="n">
-        <v>-2279152.524785532</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>12</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7718,24 +7411,21 @@
         <v>26810</v>
       </c>
       <c r="G218" t="n">
-        <v>-2279152.524785532</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>12</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7757,24 +7447,21 @@
         <v>165415.2032</v>
       </c>
       <c r="G219" t="n">
-        <v>-2279152.524785532</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>12</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7796,24 +7483,21 @@
         <v>8821.055</v>
       </c>
       <c r="G220" t="n">
-        <v>-2287973.579785532</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>12</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7835,24 +7519,21 @@
         <v>100020</v>
       </c>
       <c r="G221" t="n">
-        <v>-2187953.579785532</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>12</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7874,24 +7555,21 @@
         <v>10000</v>
       </c>
       <c r="G222" t="n">
-        <v>-2197953.579785532</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>12</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7913,24 +7591,21 @@
         <v>33</v>
       </c>
       <c r="G223" t="n">
-        <v>-2197920.579785532</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>12</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7952,24 +7627,21 @@
         <v>78830.80809999999</v>
       </c>
       <c r="G224" t="n">
-        <v>-2276751.387885532</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>12</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7991,24 +7663,21 @@
         <v>25460.3616</v>
       </c>
       <c r="G225" t="n">
-        <v>-2302211.749485532</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>12</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8030,24 +7699,21 @@
         <v>192120.3065658537</v>
       </c>
       <c r="G226" t="n">
-        <v>-2110091.442919678</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>12</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8069,24 +7735,21 @@
         <v>56</v>
       </c>
       <c r="G227" t="n">
-        <v>-2110091.442919678</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>12</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8108,24 +7771,21 @@
         <v>242775.9882</v>
       </c>
       <c r="G228" t="n">
-        <v>-2352867.431119678</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>12</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8147,24 +7807,21 @@
         <v>477359.8012</v>
       </c>
       <c r="G229" t="n">
-        <v>-1875507.629919678</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>12</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8186,24 +7843,21 @@
         <v>56638.5261</v>
       </c>
       <c r="G230" t="n">
-        <v>-1932146.156019678</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>12</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8225,24 +7879,21 @@
         <v>2693.8334</v>
       </c>
       <c r="G231" t="n">
-        <v>-1932146.156019678</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>12</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8264,24 +7915,21 @@
         <v>107613.1997</v>
       </c>
       <c r="G232" t="n">
-        <v>-1932146.156019678</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>12</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8303,24 +7951,21 @@
         <v>8712.3781</v>
       </c>
       <c r="G233" t="n">
-        <v>-1932146.156019678</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>12</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8342,24 +7987,21 @@
         <v>88499.2179</v>
       </c>
       <c r="G234" t="n">
-        <v>-1932146.156019678</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>12</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8381,24 +8023,21 @@
         <v>41229.9831</v>
       </c>
       <c r="G235" t="n">
-        <v>-1932146.156019678</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>12</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8420,24 +8059,21 @@
         <v>81300.81300813008</v>
       </c>
       <c r="G236" t="n">
-        <v>-1850845.343011548</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>12</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8459,24 +8095,21 @@
         <v>10227</v>
       </c>
       <c r="G237" t="n">
-        <v>-1861072.343011548</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>12</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8498,24 +8131,21 @@
         <v>60538.0422</v>
       </c>
       <c r="G238" t="n">
-        <v>-1861072.343011548</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>12</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8537,24 +8167,21 @@
         <v>19</v>
       </c>
       <c r="G239" t="n">
-        <v>-1861053.343011548</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>12</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8576,24 +8203,21 @@
         <v>31058.637</v>
       </c>
       <c r="G240" t="n">
-        <v>-1861053.343011548</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>12</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8615,24 +8239,21 @@
         <v>23451.9231</v>
       </c>
       <c r="G241" t="n">
-        <v>-1884505.266111548</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>12</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8654,24 +8275,21 @@
         <v>62417.6937</v>
       </c>
       <c r="G242" t="n">
-        <v>-1884505.266111548</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>12</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8693,24 +8311,21 @@
         <v>126195.0036</v>
       </c>
       <c r="G243" t="n">
-        <v>-1884505.266111548</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>12</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8732,24 +8347,21 @@
         <v>94646.2527</v>
       </c>
       <c r="G244" t="n">
-        <v>-1884505.266111548</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>12</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8771,24 +8383,21 @@
         <v>57172.9396</v>
       </c>
       <c r="G245" t="n">
-        <v>-1884505.266111548</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>12</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8810,24 +8419,21 @@
         <v>8069.6347</v>
       </c>
       <c r="G246" t="n">
-        <v>-1876435.631411548</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>12</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8849,24 +8455,21 @@
         <v>2870</v>
       </c>
       <c r="G247" t="n">
-        <v>-1879305.631411548</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>12</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8888,24 +8491,21 @@
         <v>1068</v>
       </c>
       <c r="G248" t="n">
-        <v>-1879305.631411548</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>12</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8927,24 +8527,21 @@
         <v>101838.5621</v>
       </c>
       <c r="G249" t="n">
-        <v>-1777467.069311548</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>12</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8966,24 +8563,21 @@
         <v>11</v>
       </c>
       <c r="G250" t="n">
-        <v>-1777478.069311548</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>12</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9005,24 +8599,21 @@
         <v>48425.9398</v>
       </c>
       <c r="G251" t="n">
-        <v>-1777478.069311548</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>12</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9044,24 +8635,21 @@
         <v>107674.1192</v>
       </c>
       <c r="G252" t="n">
-        <v>-1669803.950111548</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>12</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9083,24 +8671,21 @@
         <v>10</v>
       </c>
       <c r="G253" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>12</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9122,24 +8707,21 @@
         <v>309714.3548</v>
       </c>
       <c r="G254" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>12</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9161,24 +8743,21 @@
         <v>27286.0563</v>
       </c>
       <c r="G255" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>12</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9200,24 +8779,21 @@
         <v>6499362.32649187</v>
       </c>
       <c r="G256" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>12</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9239,24 +8815,21 @@
         <v>7143665.82350813</v>
       </c>
       <c r="G257" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>12</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9278,24 +8851,21 @@
         <v>7230804.9195</v>
       </c>
       <c r="G258" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="n">
+        <v>12</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9317,24 +8887,21 @@
         <v>1941904.36669187</v>
       </c>
       <c r="G259" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="n">
+        <v>12</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9356,24 +8923,21 @@
         <v>5918.993908130081</v>
       </c>
       <c r="G260" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>12</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9395,24 +8959,21 @@
         <v>109641.006</v>
       </c>
       <c r="G261" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>12</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9434,24 +8995,21 @@
         <v>693.471</v>
       </c>
       <c r="G262" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="n">
+        <v>12</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9473,24 +9031,21 @@
         <v>194214.8256</v>
       </c>
       <c r="G263" t="n">
-        <v>-1669793.950111548</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="n">
+        <v>12</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9512,24 +9067,21 @@
         <v>182</v>
       </c>
       <c r="G264" t="n">
-        <v>-1669975.950111548</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="n">
+        <v>12</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9551,24 +9103,21 @@
         <v>30269.0211</v>
       </c>
       <c r="G265" t="n">
-        <v>-1669975.950111548</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>12</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9590,24 +9139,21 @@
         <v>81.96720000000001</v>
       </c>
       <c r="G266" t="n">
-        <v>-1669893.982911548</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="n">
+        <v>12</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9629,24 +9175,21 @@
         <v>59774.4478</v>
       </c>
       <c r="G267" t="n">
-        <v>-1610119.535111548</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="n">
+        <v>12</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9668,24 +9211,21 @@
         <v>10</v>
       </c>
       <c r="G268" t="n">
-        <v>-1610109.535111548</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="n">
+        <v>12</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9707,24 +9247,21 @@
         <v>135156.6533</v>
       </c>
       <c r="G269" t="n">
-        <v>-1745266.188411548</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>12</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9746,24 +9283,21 @@
         <v>0.0001</v>
       </c>
       <c r="G270" t="n">
-        <v>-1745266.188411548</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>12</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9785,24 +9319,21 @@
         <v>5460.2235</v>
       </c>
       <c r="G271" t="n">
-        <v>-1739805.964911548</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>12</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9824,24 +9355,21 @@
         <v>260.1587</v>
       </c>
       <c r="G272" t="n">
-        <v>-1740066.123611548</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>12</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9863,24 +9391,21 @@
         <v>68.75</v>
       </c>
       <c r="G273" t="n">
-        <v>-1740066.123611548</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>12</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9902,24 +9427,21 @@
         <v>10</v>
       </c>
       <c r="G274" t="n">
-        <v>-1740056.123611548</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="n">
+        <v>12</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9941,24 +9463,21 @@
         <v>357247.4602206349</v>
       </c>
       <c r="G275" t="n">
-        <v>-1740056.123611548</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="n">
+        <v>12</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9980,24 +9499,21 @@
         <v>3711.8571</v>
       </c>
       <c r="G276" t="n">
-        <v>-1740056.123611548</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="n">
+        <v>12</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10019,24 +9535,21 @@
         <v>14610</v>
       </c>
       <c r="G277" t="n">
-        <v>-1754666.123611548</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="n">
+        <v>12</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10058,24 +9571,21 @@
         <v>31226.9555</v>
       </c>
       <c r="G278" t="n">
-        <v>-1723439.168111548</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="n">
+        <v>12</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10097,24 +9607,21 @@
         <v>47189.5012</v>
       </c>
       <c r="G279" t="n">
-        <v>-1723439.168111548</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>12</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10136,24 +9643,21 @@
         <v>132371.5322</v>
       </c>
       <c r="G280" t="n">
-        <v>-1723439.168111548</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="n">
+        <v>12</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10175,24 +9679,21 @@
         <v>294654.2489</v>
       </c>
       <c r="G281" t="n">
-        <v>-2018093.417011548</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="n">
+        <v>12</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10214,24 +9715,21 @@
         <v>15270</v>
       </c>
       <c r="G282" t="n">
-        <v>-2018093.417011548</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="n">
+        <v>12</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10253,24 +9751,21 @@
         <v>108838.0585793651</v>
       </c>
       <c r="G283" t="n">
-        <v>-1909255.358432183</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="n">
+        <v>12</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10292,24 +9787,21 @@
         <v>42719.6488</v>
       </c>
       <c r="G284" t="n">
-        <v>-1909255.358432183</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="n">
+        <v>12</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10331,24 +9823,21 @@
         <v>379637.3177</v>
       </c>
       <c r="G285" t="n">
-        <v>-1909255.358432183</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="n">
+        <v>12</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10370,24 +9859,21 @@
         <v>53211.3385</v>
       </c>
       <c r="G286" t="n">
-        <v>-1856044.019932183</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="n">
+        <v>12</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10409,24 +9895,21 @@
         <v>747813.6716999999</v>
       </c>
       <c r="G287" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="n">
+        <v>12</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10448,24 +9931,21 @@
         <v>15969.0625</v>
       </c>
       <c r="G288" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="n">
+        <v>12</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10487,24 +9967,21 @@
         <v>107301.6489</v>
       </c>
       <c r="G289" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1.044180327868853</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="n">
+        <v>12</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10526,18 +10003,21 @@
         <v>310045.5925</v>
       </c>
       <c r="G290" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="n">
+        <v>12</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10559,18 +10039,21 @@
         <v>851</v>
       </c>
       <c r="G291" t="n">
-        <v>-1108230.348232183</v>
-      </c>
-      <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="n">
+        <v>12</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10592,18 +10075,21 @@
         <v>10000.6648</v>
       </c>
       <c r="G292" t="n">
-        <v>-1118231.013032183</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="n">
+        <v>12</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10625,18 +10111,21 @@
         <v>10</v>
       </c>
       <c r="G293" t="n">
-        <v>-1118221.013032183</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="n">
+        <v>12</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10658,18 +10147,21 @@
         <v>4334.8437</v>
       </c>
       <c r="G294" t="n">
-        <v>-1118221.013032183</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="n">
+        <v>12</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10691,18 +10183,23 @@
         <v>15134.5106</v>
       </c>
       <c r="G295" t="n">
-        <v>-1133355.523632183</v>
-      </c>
-      <c r="H295" t="n">
         <v>2</v>
       </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="n">
+        <v>12</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>1.053333333333333</v>
+      </c>
       <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+        <v>1.042016806722689</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10724,18 +10221,15 @@
         <v>50</v>
       </c>
       <c r="G296" t="n">
-        <v>-1133355.523632183</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10757,18 +10251,15 @@
         <v>15000</v>
       </c>
       <c r="G297" t="n">
-        <v>-1133355.523632183</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10790,18 +10281,15 @@
         <v>5170.8737</v>
       </c>
       <c r="G298" t="n">
-        <v>-1133355.523632183</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10823,18 +10311,15 @@
         <v>38171.7184</v>
       </c>
       <c r="G299" t="n">
-        <v>-1095183.805232183</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10856,18 +10341,15 @@
         <v>79256.0724</v>
       </c>
       <c r="G300" t="n">
-        <v>-1095183.805232183</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10889,18 +10371,15 @@
         <v>102303.9534</v>
       </c>
       <c r="G301" t="n">
-        <v>-1095183.805232183</v>
-      </c>
-      <c r="H301" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10922,18 +10401,15 @@
         <v>105178.4436</v>
       </c>
       <c r="G302" t="n">
-        <v>-1095183.805232183</v>
-      </c>
-      <c r="H302" t="n">
         <v>2</v>
       </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10955,18 +10431,15 @@
         <v>104724.6402</v>
       </c>
       <c r="G303" t="n">
-        <v>-1095183.805232183</v>
-      </c>
-      <c r="H303" t="n">
         <v>2</v>
       </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10988,18 +10461,15 @@
         <v>10</v>
       </c>
       <c r="G304" t="n">
-        <v>-1095173.805232183</v>
-      </c>
-      <c r="H304" t="n">
         <v>2</v>
       </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11021,18 +10491,15 @@
         <v>43979.7197</v>
       </c>
       <c r="G305" t="n">
-        <v>-1139153.524932183</v>
-      </c>
-      <c r="H305" t="n">
         <v>2</v>
       </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11054,18 +10521,15 @@
         <v>37878.9843</v>
       </c>
       <c r="G306" t="n">
-        <v>-1139153.524932183</v>
-      </c>
-      <c r="H306" t="n">
         <v>2</v>
       </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11087,18 +10551,15 @@
         <v>32449.3858</v>
       </c>
       <c r="G307" t="n">
-        <v>-1171602.910732183</v>
-      </c>
-      <c r="H307" t="n">
         <v>2</v>
       </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11120,18 +10581,15 @@
         <v>45000</v>
       </c>
       <c r="G308" t="n">
-        <v>-1216602.910732183</v>
-      </c>
-      <c r="H308" t="n">
         <v>2</v>
       </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11153,18 +10611,15 @@
         <v>25172.0812</v>
       </c>
       <c r="G309" t="n">
-        <v>-1241774.991932183</v>
-      </c>
-      <c r="H309" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11186,18 +10641,15 @@
         <v>23790</v>
       </c>
       <c r="G310" t="n">
-        <v>-1217984.991932183</v>
-      </c>
-      <c r="H310" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11219,18 +10671,15 @@
         <v>29991.375</v>
       </c>
       <c r="G311" t="n">
-        <v>-1247976.366932183</v>
-      </c>
-      <c r="H311" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
